--- a/raw_data/20200818_saline/20200818_Sensor1_Test_51.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_51.xlsx
@@ -1,568 +1,984 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064C1E3-0956-4437-9534-C4F352AB80A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>45189.421400</v>
+        <v>45189.421399999999</v>
       </c>
       <c r="B2" s="1">
         <v>12.552617</v>
       </c>
       <c r="C2" s="1">
-        <v>904.875000</v>
+        <v>904.875</v>
       </c>
       <c r="D2" s="1">
-        <v>-179.127000</v>
+        <v>-179.12700000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>45200.169723</v>
+        <v>45200.169722999999</v>
       </c>
       <c r="G2" s="1">
         <v>12.555603</v>
       </c>
       <c r="H2" s="1">
-        <v>919.888000</v>
+        <v>919.88800000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-153.172000</v>
+        <v>-153.172</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>45210.618443</v>
+        <v>45210.618442999999</v>
       </c>
       <c r="L2" s="1">
         <v>12.558505</v>
       </c>
       <c r="M2" s="1">
-        <v>941.024000</v>
+        <v>941.024</v>
       </c>
       <c r="N2" s="1">
-        <v>-111.467000</v>
+        <v>-111.467</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>45221.117230</v>
+        <v>45221.117230000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>12.561421</v>
+        <v>12.561420999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>947.960000</v>
+        <v>947.96</v>
       </c>
       <c r="S2" s="1">
-        <v>-98.108000</v>
+        <v>-98.108000000000004</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>45232.039631</v>
       </c>
       <c r="V2" s="1">
-        <v>12.564455</v>
+        <v>12.564455000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>955.153000</v>
+        <v>955.15300000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-85.425000</v>
+        <v>-85.424999999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>45242.428834</v>
+        <v>45242.428833999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>12.567341</v>
+        <v>12.567341000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.210000</v>
+        <v>963.21</v>
       </c>
       <c r="AC2" s="1">
-        <v>-75.740900</v>
+        <v>-75.740899999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>45252.969353</v>
@@ -571,73 +987,73 @@
         <v>12.570269</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.467000</v>
+        <v>968.46699999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.193900</v>
+        <v>-74.193899999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>45263.404646</v>
+        <v>45263.404646000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>12.573168</v>
+        <v>12.573168000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.190000</v>
+        <v>976.19</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.439000</v>
+        <v>-79.438999999999993</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>45273.982824</v>
+        <v>45273.982823999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>12.576106</v>
+        <v>12.576105999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.569000</v>
+        <v>984.56899999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.303800</v>
+        <v>-91.303799999999995</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>45285.366017</v>
       </c>
       <c r="AU2" s="1">
-        <v>12.579268</v>
+        <v>12.579268000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.596000</v>
+        <v>994.596</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.145000</v>
+        <v>-109.145</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>45296.317215</v>
+        <v>45296.317215000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>12.582310</v>
+        <v>12.58231</v>
       </c>
       <c r="BA2" s="1">
-        <v>1002.940000</v>
+        <v>1002.94</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.931000</v>
+        <v>-124.931</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>45306.997077</v>
@@ -646,195 +1062,195 @@
         <v>12.585277</v>
       </c>
       <c r="BF2" s="1">
-        <v>1041.770000</v>
+        <v>1041.77</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.250000</v>
+        <v>-197.25</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>45317.648623</v>
+        <v>45317.648623000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>12.588236</v>
       </c>
       <c r="BK2" s="1">
-        <v>1108.470000</v>
+        <v>1108.47</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.632000</v>
+        <v>-314.63200000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>45328.792756</v>
+        <v>45328.792756000003</v>
       </c>
       <c r="BO2" s="1">
         <v>12.591331</v>
       </c>
       <c r="BP2" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-499.984000</v>
+        <v>-499.98399999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>45339.967601</v>
+        <v>45339.967600999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>12.594435</v>
+        <v>12.594435000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1338.440000</v>
+        <v>1338.44</v>
       </c>
       <c r="BV2" s="1">
-        <v>-703.540000</v>
+        <v>-703.54</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>45350.971380</v>
+        <v>45350.971380000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.597492</v>
+        <v>12.597492000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1475.060000</v>
+        <v>1475.06</v>
       </c>
       <c r="CA2" s="1">
-        <v>-921.415000</v>
+        <v>-921.41499999999996</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>45361.642773</v>
       </c>
       <c r="CD2" s="1">
-        <v>12.600456</v>
+        <v>12.600455999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1834.560000</v>
+        <v>1834.56</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1439.090000</v>
+        <v>-1439.09</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>45189.778999</v>
+        <v>45189.778999000002</v>
       </c>
       <c r="B3" s="1">
         <v>12.552716</v>
       </c>
       <c r="C3" s="1">
-        <v>904.871000</v>
+        <v>904.87099999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-178.973000</v>
+        <v>-178.97300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>45200.507963</v>
+        <v>45200.507962999996</v>
       </c>
       <c r="G3" s="1">
         <v>12.555697</v>
       </c>
       <c r="H3" s="1">
-        <v>919.837000</v>
+        <v>919.83699999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-152.960000</v>
+        <v>-152.96</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>45211.340092</v>
+        <v>45211.340091999999</v>
       </c>
       <c r="L3" s="1">
-        <v>12.558706</v>
+        <v>12.558706000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>941.137000</v>
+        <v>941.13699999999994</v>
       </c>
       <c r="N3" s="1">
-        <v>-111.707000</v>
+        <v>-111.70699999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>45221.856270</v>
+        <v>45221.856269999997</v>
       </c>
       <c r="Q3" s="1">
         <v>12.561627</v>
       </c>
       <c r="R3" s="1">
-        <v>947.973000</v>
+        <v>947.97299999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-98.146700</v>
+        <v>-98.146699999999996</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>45232.372974</v>
+        <v>45232.372973999998</v>
       </c>
       <c r="V3" s="1">
         <v>12.564548</v>
       </c>
       <c r="W3" s="1">
-        <v>955.094000</v>
+        <v>955.09400000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-85.356100</v>
+        <v>-85.356099999999998</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>45242.779506</v>
+        <v>45242.779505999999</v>
       </c>
       <c r="AA3" s="1">
         <v>12.567439</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.281000</v>
+        <v>963.28099999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-75.666700</v>
+        <v>-75.666700000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>45253.329939</v>
+        <v>45253.329939000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>12.570369</v>
+        <v>12.570368999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>968.465000</v>
+        <v>968.46500000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.202300</v>
+        <v>-74.202299999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>45264.090613</v>
@@ -843,240 +1259,240 @@
         <v>12.573359</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.185000</v>
+        <v>976.18499999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.449100</v>
+        <v>-79.449100000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>45274.695575</v>
+        <v>45274.695574999998</v>
       </c>
       <c r="AP3" s="1">
         <v>12.576304</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.574000</v>
+        <v>984.57399999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.303100</v>
+        <v>-91.303100000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>45285.822329</v>
+        <v>45285.822329000002</v>
       </c>
       <c r="AU3" s="1">
         <v>12.579395</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.590000</v>
+        <v>994.59</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.135000</v>
+        <v>-109.13500000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>45296.711498</v>
+        <v>45296.711497999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>12.582420</v>
+        <v>12.582420000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1002.950000</v>
+        <v>1002.95</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.913000</v>
+        <v>-124.913</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>45307.363580</v>
+        <v>45307.363579999997</v>
       </c>
       <c r="BE3" s="1">
         <v>12.585379</v>
       </c>
       <c r="BF3" s="1">
-        <v>1041.730000</v>
+        <v>1041.73</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.253000</v>
+        <v>-197.25299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>45318.048895</v>
       </c>
       <c r="BJ3" s="1">
-        <v>12.588347</v>
+        <v>12.588347000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1108.450000</v>
+        <v>1108.45</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.658000</v>
+        <v>-314.65800000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>45329.219296</v>
+        <v>45329.219296000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>12.591450</v>
+        <v>12.59145</v>
       </c>
       <c r="BP3" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-500.050000</v>
+        <v>-500.05</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>45340.429874</v>
+        <v>45340.429874000001</v>
       </c>
       <c r="BT3" s="1">
         <v>12.594564</v>
       </c>
       <c r="BU3" s="1">
-        <v>1338.440000</v>
+        <v>1338.44</v>
       </c>
       <c r="BV3" s="1">
-        <v>-703.520000</v>
+        <v>-703.52</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>45351.140991</v>
       </c>
       <c r="BY3" s="1">
-        <v>12.597539</v>
+        <v>12.597538999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1475.190000</v>
+        <v>1475.19</v>
       </c>
       <c r="CA3" s="1">
-        <v>-921.225000</v>
+        <v>-921.22500000000002</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>45362.237507</v>
+        <v>45362.237506999998</v>
       </c>
       <c r="CD3" s="1">
         <v>12.600622</v>
       </c>
       <c r="CE3" s="1">
-        <v>1833.960000</v>
+        <v>1833.96</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1437.620000</v>
+        <v>-1437.62</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>45190.124247</v>
       </c>
       <c r="B4" s="1">
-        <v>12.552812</v>
+        <v>12.552811999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>904.815000</v>
+        <v>904.81500000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-179.147000</v>
+        <v>-179.14699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>45201.201866</v>
+        <v>45201.201866000003</v>
       </c>
       <c r="G4" s="1">
-        <v>12.555889</v>
+        <v>12.555889000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>920.211000</v>
+        <v>920.21100000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-152.853000</v>
+        <v>-152.85300000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>45211.687786</v>
+        <v>45211.687786000002</v>
       </c>
       <c r="L4" s="1">
         <v>12.558802</v>
       </c>
       <c r="M4" s="1">
-        <v>941.107000</v>
+        <v>941.10699999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-111.688000</v>
+        <v>-111.688</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>45222.202491</v>
+        <v>45222.202490999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>12.561723</v>
+        <v>12.561723000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>947.907000</v>
+        <v>947.90700000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-98.115200</v>
+        <v>-98.115200000000002</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>45232.717995</v>
+        <v>45232.717994999999</v>
       </c>
       <c r="V4" s="1">
-        <v>12.564644</v>
+        <v>12.564643999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>954.993000</v>
+        <v>954.99300000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-85.406300</v>
+        <v>-85.406300000000002</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>45243.467456</v>
+        <v>45243.467455999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>12.567630</v>
+        <v>12.567629999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.207000</v>
+        <v>963.20699999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-75.650500</v>
+        <v>-75.650499999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>45253.977218</v>
@@ -1085,240 +1501,240 @@
         <v>12.570549</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.441000</v>
+        <v>968.44100000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.168300</v>
+        <v>-74.168300000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>45264.477494</v>
+        <v>45264.477493999999</v>
       </c>
       <c r="AK4" s="1">
         <v>12.573466</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.167000</v>
+        <v>976.16700000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.416000</v>
+        <v>-79.415999999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>45275.160326</v>
+        <v>45275.160325999997</v>
       </c>
       <c r="AP4" s="1">
         <v>12.576433</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.572000</v>
+        <v>984.572</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.301700</v>
+        <v>-91.301699999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>45286.208748</v>
+        <v>45286.208747999997</v>
       </c>
       <c r="AU4" s="1">
         <v>12.579502</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.586000</v>
+        <v>994.58600000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.147000</v>
+        <v>-109.14700000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>45297.090938</v>
+        <v>45297.090938000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>12.582525</v>
       </c>
       <c r="BA4" s="1">
-        <v>1002.960000</v>
+        <v>1002.96</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.915000</v>
+        <v>-124.91500000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>45307.721691</v>
+        <v>45307.721690999999</v>
       </c>
       <c r="BE4" s="1">
         <v>12.585478</v>
       </c>
       <c r="BF4" s="1">
-        <v>1041.730000</v>
+        <v>1041.73</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.246000</v>
+        <v>-197.24600000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>45318.487389</v>
+        <v>45318.487389000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>12.588469</v>
       </c>
       <c r="BK4" s="1">
-        <v>1108.500000</v>
+        <v>1108.5</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.647000</v>
+        <v>-314.64699999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>45329.637920</v>
+        <v>45329.637920000001</v>
       </c>
       <c r="BO4" s="1">
         <v>12.591566</v>
       </c>
       <c r="BP4" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-500.012000</v>
+        <v>-500.012</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>45340.848533</v>
+        <v>45340.848532999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>12.594680</v>
+        <v>12.59468</v>
       </c>
       <c r="BU4" s="1">
-        <v>1338.450000</v>
+        <v>1338.45</v>
       </c>
       <c r="BV4" s="1">
-        <v>-703.542000</v>
+        <v>-703.54200000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>45351.563074</v>
+        <v>45351.563073999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>12.597656</v>
+        <v>12.597656000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1475.050000</v>
+        <v>1475.05</v>
       </c>
       <c r="CA4" s="1">
-        <v>-921.257000</v>
+        <v>-921.25699999999995</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>45362.773170</v>
+        <v>45362.77317</v>
       </c>
       <c r="CD4" s="1">
-        <v>12.600770</v>
+        <v>12.600770000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1834.110000</v>
+        <v>1834.11</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1439.370000</v>
+        <v>-1439.37</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>45190.805238</v>
+        <v>45190.805238000001</v>
       </c>
       <c r="B5" s="1">
         <v>12.553001</v>
       </c>
       <c r="C5" s="1">
-        <v>904.838000</v>
+        <v>904.83799999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-179.092000</v>
+        <v>-179.09200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>45201.548073</v>
+        <v>45201.548072999998</v>
       </c>
       <c r="G5" s="1">
-        <v>12.555986</v>
+        <v>12.555986000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>919.768000</v>
+        <v>919.76800000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>-152.953000</v>
+        <v>-152.953</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>45212.033498</v>
+        <v>45212.033497999997</v>
       </c>
       <c r="L5" s="1">
-        <v>12.558898</v>
+        <v>12.558897999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>941.124000</v>
+        <v>941.12400000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-111.410000</v>
+        <v>-111.41</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>45222.552217</v>
+        <v>45222.552216999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>12.561820</v>
+        <v>12.561820000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>947.915000</v>
+        <v>947.91499999999996</v>
       </c>
       <c r="S5" s="1">
-        <v>-98.116400</v>
+        <v>-98.116399999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>45233.376845</v>
+        <v>45233.376844999999</v>
       </c>
       <c r="V5" s="1">
-        <v>12.564827</v>
+        <v>12.564826999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>955.170000</v>
+        <v>955.17</v>
       </c>
       <c r="X5" s="1">
-        <v>-85.344000</v>
+        <v>-85.343999999999994</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>45243.825072</v>
@@ -1327,181 +1743,181 @@
         <v>12.567729</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.237000</v>
+        <v>963.23699999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-75.643300</v>
+        <v>-75.643299999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>45254.362113</v>
+        <v>45254.362113000003</v>
       </c>
       <c r="AF5" s="1">
         <v>12.570656</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.524000</v>
+        <v>968.524</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.195900</v>
+        <v>-74.195899999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>45264.830646</v>
+        <v>45264.830646000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>12.573564</v>
+        <v>12.573563999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.192000</v>
+        <v>976.19200000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.437600</v>
+        <v>-79.437600000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>45275.490167</v>
+        <v>45275.490167000004</v>
       </c>
       <c r="AP5" s="1">
         <v>12.576525</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.591000</v>
+        <v>984.59100000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.323500</v>
+        <v>-91.323499999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>45286.568344</v>
+        <v>45286.568343999999</v>
       </c>
       <c r="AU5" s="1">
         <v>12.579602</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.579000</v>
+        <v>994.57899999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.111000</v>
+        <v>-109.111</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>45297.521962</v>
+        <v>45297.521961999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>12.582645</v>
+        <v>12.582644999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1002.940000</v>
+        <v>1002.94</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.924000</v>
+        <v>-124.92400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>45308.175531</v>
+        <v>45308.175531000001</v>
       </c>
       <c r="BE5" s="1">
         <v>12.585604</v>
       </c>
       <c r="BF5" s="1">
-        <v>1041.760000</v>
+        <v>1041.76</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.258000</v>
+        <v>-197.25800000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>45318.799870</v>
+        <v>45318.799870000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>12.588556</v>
+        <v>12.588556000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1108.480000</v>
+        <v>1108.48</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.656000</v>
+        <v>-314.65600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>45330.034222</v>
+        <v>45330.034222000002</v>
       </c>
       <c r="BO5" s="1">
         <v>12.591676</v>
       </c>
       <c r="BP5" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-500.027000</v>
+        <v>-500.02699999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>45341.264639</v>
+        <v>45341.264639000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>12.594796</v>
+        <v>12.594796000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1338.510000</v>
+        <v>1338.51</v>
       </c>
       <c r="BV5" s="1">
-        <v>-703.558000</v>
+        <v>-703.55799999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>45351.984210</v>
+        <v>45351.984210000002</v>
       </c>
       <c r="BY5" s="1">
         <v>12.597773</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1475.150000</v>
+        <v>1475.15</v>
       </c>
       <c r="CA5" s="1">
-        <v>-921.390000</v>
+        <v>-921.39</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>45363.317266</v>
+        <v>45363.317265999998</v>
       </c>
       <c r="CD5" s="1">
         <v>12.600921</v>
       </c>
       <c r="CE5" s="1">
-        <v>1834.810000</v>
+        <v>1834.81</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1437.850000</v>
+        <v>-1437.85</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>45191.146966</v>
       </c>
@@ -1509,43 +1925,43 @@
         <v>12.553096</v>
       </c>
       <c r="C6" s="1">
-        <v>904.722000</v>
+        <v>904.72199999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-179.116000</v>
+        <v>-179.11600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>45201.897753</v>
+        <v>45201.897752999997</v>
       </c>
       <c r="G6" s="1">
-        <v>12.556083</v>
+        <v>12.556082999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>919.882000</v>
+        <v>919.88199999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>-152.605000</v>
+        <v>-152.60499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>45212.689705</v>
+        <v>45212.689704999997</v>
       </c>
       <c r="L6" s="1">
-        <v>12.559080</v>
+        <v>12.55908</v>
       </c>
       <c r="M6" s="1">
-        <v>941.157000</v>
+        <v>941.15700000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-111.691000</v>
+        <v>-111.691</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>45223.203404</v>
@@ -1554,375 +1970,375 @@
         <v>12.562001</v>
       </c>
       <c r="R6" s="1">
-        <v>947.848000</v>
+        <v>947.84799999999996</v>
       </c>
       <c r="S6" s="1">
-        <v>-98.086100</v>
+        <v>-98.086100000000002</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>45233.743885</v>
+        <v>45233.743885000004</v>
       </c>
       <c r="V6" s="1">
-        <v>12.564929</v>
+        <v>12.564928999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>955.000000</v>
+        <v>955</v>
       </c>
       <c r="X6" s="1">
-        <v>-85.371200</v>
+        <v>-85.371200000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>45244.174752</v>
+        <v>45244.174751999999</v>
       </c>
       <c r="AA6" s="1">
         <v>12.567826</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.227000</v>
+        <v>963.22699999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-75.620200</v>
+        <v>-75.620199999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>45254.708787</v>
+        <v>45254.708787000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>12.570752</v>
+        <v>12.570752000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.392000</v>
+        <v>968.39200000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.251200</v>
+        <v>-74.251199999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>45265.174900</v>
+        <v>45265.174899999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>12.573660</v>
+        <v>12.57366</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.200000</v>
+        <v>976.2</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.435500</v>
+        <v>-79.435500000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>45276.053621</v>
+        <v>45276.053620999999</v>
       </c>
       <c r="AP6" s="1">
         <v>12.576682</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.573000</v>
+        <v>984.57299999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.334000</v>
+        <v>-91.334000000000003</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>45286.989948</v>
+        <v>45286.989948000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>12.579719</v>
+        <v>12.579719000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.579000</v>
+        <v>994.57899999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.150000</v>
+        <v>-109.15</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>45297.806170</v>
+        <v>45297.806170000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>12.582724</v>
+        <v>12.582724000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1002.940000</v>
+        <v>1002.94</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.935000</v>
+        <v>-124.935</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>45308.444561</v>
+        <v>45308.444560999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>12.585679</v>
+        <v>12.585679000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1041.760000</v>
+        <v>1041.76</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.247000</v>
+        <v>-197.24700000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>45319.181260</v>
+        <v>45319.181259999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>12.588661</v>
       </c>
       <c r="BK6" s="1">
-        <v>1108.480000</v>
+        <v>1108.48</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.655000</v>
+        <v>-314.65499999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>45330.457309</v>
+        <v>45330.457308999998</v>
       </c>
       <c r="BO6" s="1">
         <v>12.591794</v>
       </c>
       <c r="BP6" s="1">
-        <v>1216.670000</v>
+        <v>1216.67</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-500.007000</v>
+        <v>-500.00700000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>45341.820194</v>
       </c>
       <c r="BT6" s="1">
-        <v>12.594950</v>
+        <v>12.594950000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1338.460000</v>
+        <v>1338.46</v>
       </c>
       <c r="BV6" s="1">
-        <v>-703.546000</v>
+        <v>-703.54600000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>45352.408258</v>
+        <v>45352.408258000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>12.597891</v>
+        <v>12.597891000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1474.990000</v>
+        <v>1474.99</v>
       </c>
       <c r="CA6" s="1">
-        <v>-921.293000</v>
+        <v>-921.29300000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>45363.856419</v>
+        <v>45363.856419000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>12.601071</v>
+        <v>12.601070999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1833.220000</v>
+        <v>1833.22</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1438.330000</v>
+        <v>-1438.33</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>45191.492715</v>
       </c>
       <c r="B7" s="1">
-        <v>12.553192</v>
+        <v>12.553191999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>904.983000</v>
+        <v>904.98299999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-179.115000</v>
+        <v>-179.11500000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>45202.550519</v>
+        <v>45202.550518999997</v>
       </c>
       <c r="G7" s="1">
-        <v>12.556264</v>
+        <v>12.556264000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>919.894000</v>
+        <v>919.89400000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-153.017000</v>
+        <v>-153.017</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>45213.070137</v>
+        <v>45213.070137000002</v>
       </c>
       <c r="L7" s="1">
         <v>12.559186</v>
       </c>
       <c r="M7" s="1">
-        <v>941.080000</v>
+        <v>941.08</v>
       </c>
       <c r="N7" s="1">
-        <v>-111.791000</v>
+        <v>-111.791</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>45223.598223</v>
+        <v>45223.598223000001</v>
       </c>
       <c r="Q7" s="1">
         <v>12.562111</v>
       </c>
       <c r="R7" s="1">
-        <v>947.972000</v>
+        <v>947.97199999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-98.146900</v>
+        <v>-98.146900000000002</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>45234.090125</v>
+        <v>45234.090125000002</v>
       </c>
       <c r="V7" s="1">
         <v>12.565025</v>
       </c>
       <c r="W7" s="1">
-        <v>955.053000</v>
+        <v>955.053</v>
       </c>
       <c r="X7" s="1">
-        <v>-85.376900</v>
+        <v>-85.376900000000006</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>45244.521952</v>
+        <v>45244.521952000003</v>
       </c>
       <c r="AA7" s="1">
         <v>12.567923</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.167000</v>
+        <v>963.16700000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-75.603600</v>
+        <v>-75.6036</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>45255.040115</v>
+        <v>45255.040115000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>12.570844</v>
+        <v>12.570843999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.427000</v>
+        <v>968.42700000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.248300</v>
+        <v>-74.2483</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>45265.597460</v>
+        <v>45265.597459999997</v>
       </c>
       <c r="AK7" s="1">
         <v>12.573777</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.157000</v>
+        <v>976.15700000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.416900</v>
+        <v>-79.416899999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>45276.227717</v>
+        <v>45276.227717000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>12.576730</v>
+        <v>12.57673</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.575000</v>
+        <v>984.57500000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.289900</v>
+        <v>-91.289900000000003</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>45287.300903</v>
+        <v>45287.300903000003</v>
       </c>
       <c r="AU7" s="1">
         <v>12.579806</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.575000</v>
+        <v>994.57500000000005</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.127000</v>
+        <v>-109.127</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>45298.167752</v>
+        <v>45298.167752000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>12.582824</v>
       </c>
       <c r="BA7" s="1">
-        <v>1002.940000</v>
+        <v>1002.94</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.921000</v>
+        <v>-124.92100000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>45308.805451</v>
@@ -1931,527 +2347,527 @@
         <v>12.585779</v>
       </c>
       <c r="BF7" s="1">
-        <v>1041.770000</v>
+        <v>1041.77</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.251000</v>
+        <v>-197.251</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>45319.569133</v>
+        <v>45319.569132999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>12.588769</v>
+        <v>12.588768999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1108.460000</v>
+        <v>1108.46</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.649000</v>
+        <v>-314.649</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>45331.274220</v>
+        <v>45331.274219999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>12.592021</v>
+        <v>12.592021000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-500.035000</v>
+        <v>-500.03500000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>45342.128670</v>
+        <v>45342.128669999998</v>
       </c>
       <c r="BT7" s="1">
         <v>12.595036</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.460000</v>
+        <v>1338.46</v>
       </c>
       <c r="BV7" s="1">
-        <v>-703.527000</v>
+        <v>-703.52700000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>45352.828400</v>
+        <v>45352.828399999999</v>
       </c>
       <c r="BY7" s="1">
         <v>12.598008</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1475.220000</v>
+        <v>1475.22</v>
       </c>
       <c r="CA7" s="1">
-        <v>-921.335000</v>
+        <v>-921.33500000000004</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>45364.399077</v>
+        <v>45364.399077000002</v>
       </c>
       <c r="CD7" s="1">
         <v>12.601222</v>
       </c>
       <c r="CE7" s="1">
-        <v>1834.720000</v>
+        <v>1834.72</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1439.350000</v>
+        <v>-1439.35</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>45192.158308</v>
+        <v>45192.158307999998</v>
       </c>
       <c r="B8" s="1">
-        <v>12.553377</v>
+        <v>12.553376999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>904.927000</v>
+        <v>904.92700000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-179.290000</v>
+        <v>-179.29</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>45202.929430</v>
+        <v>45202.929429999997</v>
       </c>
       <c r="G8" s="1">
         <v>12.556369</v>
       </c>
       <c r="H8" s="1">
-        <v>920.059000</v>
+        <v>920.05899999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-152.726000</v>
+        <v>-152.726</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>45213.417336</v>
+        <v>45213.417335999999</v>
       </c>
       <c r="L8" s="1">
-        <v>12.559283</v>
+        <v>12.559283000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>940.943000</v>
+        <v>940.94299999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.741000</v>
+        <v>-111.741</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>45223.944923</v>
+        <v>45223.944923000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>12.562207</v>
+        <v>12.562207000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>947.953000</v>
+        <v>947.95299999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-98.157900</v>
+        <v>-98.157899999999998</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>45234.434504</v>
+        <v>45234.434503999997</v>
       </c>
       <c r="V8" s="1">
         <v>12.565121</v>
       </c>
       <c r="W8" s="1">
-        <v>955.058000</v>
+        <v>955.05799999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-85.272100</v>
+        <v>-85.272099999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>45244.956448</v>
+        <v>45244.956447999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>12.568043</v>
+        <v>12.568042999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.128000</v>
+        <v>963.12800000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-75.656500</v>
+        <v>-75.656499999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>45255.473617</v>
+        <v>45255.473617000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>12.570965</v>
+        <v>12.570964999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>968.365000</v>
+        <v>968.36500000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.132300</v>
+        <v>-74.132300000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>45265.881707</v>
       </c>
       <c r="AK8" s="1">
-        <v>12.573856</v>
+        <v>12.573855999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.159000</v>
+        <v>976.15899999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.398800</v>
+        <v>-79.398799999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>45276.586837</v>
+        <v>45276.586837000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>12.576830</v>
+        <v>12.576829999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.587000</v>
+        <v>984.58699999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.314200</v>
+        <v>-91.3142</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>45287.663480</v>
+        <v>45287.663480000003</v>
       </c>
       <c r="AU8" s="1">
         <v>12.579907</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.589000</v>
+        <v>994.58900000000006</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.138000</v>
+        <v>-109.13800000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>45298.524410</v>
+        <v>45298.524409999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>12.582923</v>
+        <v>12.582922999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1002.940000</v>
+        <v>1002.94</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.919000</v>
+        <v>-124.919</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>45309.530634</v>
+        <v>45309.530634000002</v>
       </c>
       <c r="BE8" s="1">
         <v>12.585981</v>
       </c>
       <c r="BF8" s="1">
-        <v>1041.760000</v>
+        <v>1041.76</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.249000</v>
+        <v>-197.249</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>45320.319112</v>
+        <v>45320.319111999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>12.588978</v>
+        <v>12.588977999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1108.460000</v>
+        <v>1108.46</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.648000</v>
+        <v>-314.64800000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>45331.692627</v>
+        <v>45331.692626999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>12.592137</v>
+        <v>12.592136999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1216.660000</v>
+        <v>1216.6600000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-500.036000</v>
+        <v>-500.036</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>45342.533406</v>
+        <v>45342.533406000002</v>
       </c>
       <c r="BT8" s="1">
         <v>12.595148</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.500000</v>
+        <v>1338.5</v>
       </c>
       <c r="BV8" s="1">
-        <v>-703.492000</v>
+        <v>-703.49199999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>45353.273324</v>
+        <v>45353.273324000002</v>
       </c>
       <c r="BY8" s="1">
         <v>12.598131</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1475.170000</v>
+        <v>1475.17</v>
       </c>
       <c r="CA8" s="1">
-        <v>-921.282000</v>
+        <v>-921.28200000000004</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>45365.262080</v>
+        <v>45365.26208</v>
       </c>
       <c r="CD8" s="1">
         <v>12.601462</v>
       </c>
       <c r="CE8" s="1">
-        <v>1833.300000</v>
+        <v>1833.3</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1438.650000</v>
+        <v>-1438.65</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>45192.522905</v>
+        <v>45192.522904999998</v>
       </c>
       <c r="B9" s="1">
-        <v>12.553479</v>
+        <v>12.553478999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>905.067000</v>
+        <v>905.06700000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-179.133000</v>
+        <v>-179.13300000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>45203.274647</v>
+        <v>45203.274646999998</v>
       </c>
       <c r="G9" s="1">
-        <v>12.556465</v>
+        <v>12.556464999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>920.682000</v>
+        <v>920.68200000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-153.237000</v>
+        <v>-153.23699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>45213.758584</v>
+        <v>45213.758584000003</v>
       </c>
       <c r="L9" s="1">
         <v>12.559377</v>
       </c>
       <c r="M9" s="1">
-        <v>941.170000</v>
+        <v>941.17</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.437000</v>
+        <v>-111.437</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>45224.298106</v>
+        <v>45224.298106000002</v>
       </c>
       <c r="Q9" s="1">
         <v>12.562305</v>
       </c>
       <c r="R9" s="1">
-        <v>947.908000</v>
+        <v>947.90800000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-98.185500</v>
+        <v>-98.185500000000005</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>45234.851146</v>
+        <v>45234.851146000001</v>
       </c>
       <c r="V9" s="1">
-        <v>12.565236</v>
+        <v>12.565236000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>955.106000</v>
+        <v>955.10599999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-85.336000</v>
+        <v>-85.335999999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>45245.221806</v>
+        <v>45245.221806000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>12.568117</v>
+        <v>12.568117000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.221000</v>
+        <v>963.221</v>
       </c>
       <c r="AC9" s="1">
-        <v>-75.671400</v>
+        <v>-75.671400000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>45255.749394</v>
+        <v>45255.749393999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>12.571041</v>
+        <v>12.571040999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.512000</v>
+        <v>968.51199999999994</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.184400</v>
+        <v>-74.184399999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>45266.234850</v>
+        <v>45266.234850000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>12.573954</v>
+        <v>12.573954000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.170000</v>
+        <v>976.17</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.443600</v>
+        <v>-79.443600000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>45276.951416</v>
+        <v>45276.951416000004</v>
       </c>
       <c r="AP9" s="1">
         <v>12.576931</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.567000</v>
+        <v>984.56700000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.307200</v>
+        <v>-91.307199999999995</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>45288.030023</v>
+        <v>45288.030022999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>12.580008</v>
+        <v>12.580007999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.589000</v>
+        <v>994.58900000000006</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.141000</v>
+        <v>-109.14100000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>45299.240599</v>
+        <v>45299.240598999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>12.583122</v>
+        <v>12.583121999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1002.940000</v>
+        <v>1002.94</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.936000</v>
+        <v>-124.93600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>45309.907598</v>
+        <v>45309.907597999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>12.586085</v>
+        <v>12.586085000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1041.740000</v>
+        <v>1041.74</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.263000</v>
+        <v>-197.26300000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>45320.721866</v>
@@ -2460,43 +2876,43 @@
         <v>12.589089</v>
       </c>
       <c r="BK9" s="1">
-        <v>1108.460000</v>
+        <v>1108.46</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.666000</v>
+        <v>-314.666</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>45332.085179</v>
+        <v>45332.085179000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>12.592246</v>
+        <v>12.592245999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1216.700000</v>
+        <v>1216.7</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-500.079000</v>
+        <v>-500.07900000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>45343.285342</v>
+        <v>45343.285342000003</v>
       </c>
       <c r="BT9" s="1">
         <v>12.595357</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.500000</v>
+        <v>1338.5</v>
       </c>
       <c r="BV9" s="1">
-        <v>-703.570000</v>
+        <v>-703.57</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>45354.015324</v>
@@ -2505,13 +2921,13 @@
         <v>12.598338</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1475.090000</v>
+        <v>1475.09</v>
       </c>
       <c r="CA9" s="1">
-        <v>-921.344000</v>
+        <v>-921.34400000000005</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>45365.475392</v>
@@ -2520,105 +2936,105 @@
         <v>12.601521</v>
       </c>
       <c r="CE9" s="1">
-        <v>1833.430000</v>
+        <v>1833.43</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1438.680000</v>
+        <v>-1438.68</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>45192.914212</v>
+        <v>45192.914212000003</v>
       </c>
       <c r="B10" s="1">
         <v>12.553587</v>
       </c>
       <c r="C10" s="1">
-        <v>904.931000</v>
+        <v>904.93100000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-179.158000</v>
+        <v>-179.15799999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>45203.621847</v>
+        <v>45203.621847000002</v>
       </c>
       <c r="G10" s="1">
         <v>12.556562</v>
       </c>
       <c r="H10" s="1">
-        <v>919.873000</v>
+        <v>919.87300000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-152.540000</v>
+        <v>-152.54</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>45214.180679</v>
+        <v>45214.180678999997</v>
       </c>
       <c r="L10" s="1">
         <v>12.559495</v>
       </c>
       <c r="M10" s="1">
-        <v>941.078000</v>
+        <v>941.07799999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-111.605000</v>
+        <v>-111.605</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>45224.723146</v>
+        <v>45224.723145999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>12.562423</v>
+        <v>12.562423000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>947.903000</v>
+        <v>947.90300000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-98.218300</v>
+        <v>-98.218299999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>45235.145581</v>
+        <v>45235.145580999997</v>
       </c>
       <c r="V10" s="1">
         <v>12.565318</v>
       </c>
       <c r="W10" s="1">
-        <v>955.123000</v>
+        <v>955.12300000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-85.272500</v>
+        <v>-85.272499999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>45245.568510</v>
+        <v>45245.568509999997</v>
       </c>
       <c r="AA10" s="1">
         <v>12.568213</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.167000</v>
+        <v>963.16700000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-75.567400</v>
+        <v>-75.567400000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>45256.092159</v>
@@ -2627,88 +3043,88 @@
         <v>12.571137</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.424000</v>
+        <v>968.42399999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.189300</v>
+        <v>-74.189300000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>45266.582516</v>
+        <v>45266.582516000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>12.574051</v>
+        <v>12.574051000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.190000</v>
+        <v>976.19</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.423400</v>
+        <v>-79.423400000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>45277.668597</v>
+        <v>45277.668597000004</v>
       </c>
       <c r="AP10" s="1">
-        <v>12.577130</v>
+        <v>12.57713</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.568000</v>
+        <v>984.56799999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.318100</v>
+        <v>-91.318100000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>45288.758645</v>
+        <v>45288.758645000002</v>
       </c>
       <c r="AU10" s="1">
         <v>12.580211</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.575000</v>
+        <v>994.57500000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.146000</v>
+        <v>-109.146</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>45299.600200</v>
+        <v>45299.600200000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>12.583222</v>
+        <v>12.583221999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1002.930000</v>
+        <v>1002.93</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.928000</v>
+        <v>-124.928</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>45310.269677</v>
+        <v>45310.269676999997</v>
       </c>
       <c r="BE10" s="1">
         <v>12.586186</v>
       </c>
       <c r="BF10" s="1">
-        <v>1041.770000</v>
+        <v>1041.77</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.274000</v>
+        <v>-197.274</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>45321.100283</v>
@@ -2717,333 +3133,333 @@
         <v>12.589195</v>
       </c>
       <c r="BK10" s="1">
-        <v>1108.490000</v>
+        <v>1108.49</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.657000</v>
+        <v>-314.65699999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>45332.819781</v>
+        <v>45332.819780999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>12.592450</v>
+        <v>12.592449999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1216.690000</v>
+        <v>1216.69</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-500.071000</v>
+        <v>-500.07100000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>45343.398429</v>
+        <v>45343.398429000001</v>
       </c>
       <c r="BT10" s="1">
         <v>12.595388</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.450000</v>
+        <v>1338.45</v>
       </c>
       <c r="BV10" s="1">
-        <v>-703.527000</v>
+        <v>-703.52700000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>45354.120448</v>
+        <v>45354.120448000001</v>
       </c>
       <c r="BY10" s="1">
         <v>12.598367</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1475.140000</v>
+        <v>1475.14</v>
       </c>
       <c r="CA10" s="1">
-        <v>-921.361000</v>
+        <v>-921.36099999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>45365.998175</v>
+        <v>45365.998175000001</v>
       </c>
       <c r="CD10" s="1">
         <v>12.601666</v>
       </c>
       <c r="CE10" s="1">
-        <v>1834.520000</v>
+        <v>1834.52</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1439.050000</v>
+        <v>-1439.05</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>45193.516391</v>
+        <v>45193.516390999997</v>
       </c>
       <c r="B11" s="1">
-        <v>12.553755</v>
+        <v>12.553755000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>904.734000</v>
+        <v>904.73400000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-179.128000</v>
+        <v>-179.12799999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>45204.043973</v>
       </c>
       <c r="G11" s="1">
-        <v>12.556679</v>
+        <v>12.556679000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>919.916000</v>
+        <v>919.91600000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-152.826000</v>
+        <v>-152.82599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>45214.453976</v>
+        <v>45214.453975999997</v>
       </c>
       <c r="L11" s="1">
         <v>12.559571</v>
       </c>
       <c r="M11" s="1">
-        <v>941.133000</v>
+        <v>941.13300000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-111.417000</v>
+        <v>-111.417</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>45224.990987</v>
+        <v>45224.990986999997</v>
       </c>
       <c r="Q11" s="1">
         <v>12.562497</v>
       </c>
       <c r="R11" s="1">
-        <v>947.877000</v>
+        <v>947.87699999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-98.268700</v>
+        <v>-98.268699999999995</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>45235.490299</v>
+        <v>45235.490298999997</v>
       </c>
       <c r="V11" s="1">
-        <v>12.565414</v>
+        <v>12.565414000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>955.130000</v>
+        <v>955.13</v>
       </c>
       <c r="X11" s="1">
-        <v>-85.231800</v>
+        <v>-85.231800000000007</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>45245.918686</v>
+        <v>45245.918685999997</v>
       </c>
       <c r="AA11" s="1">
         <v>12.568311</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.152000</v>
+        <v>963.15200000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-75.608300</v>
+        <v>-75.6083</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>45256.437343</v>
+        <v>45256.437342999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>12.571233</v>
+        <v>12.571232999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.401000</v>
+        <v>968.40099999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.093700</v>
+        <v>-74.093699999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>45267.278401</v>
+        <v>45267.278401000003</v>
       </c>
       <c r="AK11" s="1">
         <v>12.574244</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.204000</v>
+        <v>976.20399999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.453400</v>
+        <v>-79.453400000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>45278.053987</v>
+        <v>45278.053986999999</v>
       </c>
       <c r="AP11" s="1">
         <v>12.577237</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.597000</v>
+        <v>984.59699999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.311600</v>
+        <v>-91.311599999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>45289.153460</v>
+        <v>45289.153460000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>12.580320</v>
+        <v>12.58032</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.586000</v>
+        <v>994.58600000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.156000</v>
+        <v>-109.15600000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>45299.959836</v>
+        <v>45299.959836000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>12.583322</v>
+        <v>12.583322000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1002.950000</v>
+        <v>1002.95</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.934000</v>
+        <v>-124.934</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>45310.943209</v>
+        <v>45310.943208999997</v>
       </c>
       <c r="BE11" s="1">
         <v>12.586373</v>
       </c>
       <c r="BF11" s="1">
-        <v>1041.780000</v>
+        <v>1041.78</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.270000</v>
+        <v>-197.27</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>45321.796169</v>
+        <v>45321.796169000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>12.589388</v>
       </c>
       <c r="BK11" s="1">
-        <v>1108.490000</v>
+        <v>1108.49</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.653000</v>
+        <v>-314.65300000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>45333.327697</v>
+        <v>45333.327697000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>12.592591</v>
+        <v>12.592591000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-500.044000</v>
+        <v>-500.04399999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>45343.834413</v>
+        <v>45343.834412999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>12.595510</v>
+        <v>12.595510000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.450000</v>
+        <v>1338.45</v>
       </c>
       <c r="BV11" s="1">
-        <v>-703.541000</v>
+        <v>-703.54100000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>45354.565853</v>
       </c>
       <c r="BY11" s="1">
-        <v>12.598491</v>
+        <v>12.598490999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1475.190000</v>
+        <v>1475.19</v>
       </c>
       <c r="CA11" s="1">
-        <v>-921.220000</v>
+        <v>-921.22</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>45366.513022</v>
+        <v>45366.513021999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>12.601809</v>
+        <v>12.601808999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1833.860000</v>
+        <v>1833.86</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1439.270000</v>
+        <v>-1439.27</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>45193.913172</v>
       </c>
@@ -3051,223 +3467,223 @@
         <v>12.553865</v>
       </c>
       <c r="C12" s="1">
-        <v>904.880000</v>
+        <v>904.88</v>
       </c>
       <c r="D12" s="1">
-        <v>-179.223000</v>
+        <v>-179.22300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>45204.336580</v>
+        <v>45204.336580000003</v>
       </c>
       <c r="G12" s="1">
-        <v>12.556760</v>
+        <v>12.556760000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>920.356000</v>
+        <v>920.35599999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-153.060000</v>
+        <v>-153.06</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>45214.799222</v>
+        <v>45214.799222000001</v>
       </c>
       <c r="L12" s="1">
         <v>12.559666</v>
       </c>
       <c r="M12" s="1">
-        <v>941.114000</v>
+        <v>941.11400000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-111.692000</v>
+        <v>-111.69199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>45225.345624</v>
+        <v>45225.345624000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>12.562596</v>
+        <v>12.562595999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>947.855000</v>
+        <v>947.85500000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-98.270400</v>
+        <v>-98.270399999999995</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>45235.833533</v>
+        <v>45235.833532999997</v>
       </c>
       <c r="V12" s="1">
         <v>12.565509</v>
       </c>
       <c r="W12" s="1">
-        <v>955.049000</v>
+        <v>955.04899999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-85.461800</v>
+        <v>-85.461799999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>45246.615103</v>
+        <v>45246.615102999996</v>
       </c>
       <c r="AA12" s="1">
-        <v>12.568504</v>
+        <v>12.568504000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.217000</v>
+        <v>963.21699999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-75.568000</v>
+        <v>-75.567999999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>45257.123839</v>
       </c>
       <c r="AF12" s="1">
-        <v>12.571423</v>
+        <v>12.571422999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.438000</v>
+        <v>968.43799999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.117600</v>
+        <v>-74.117599999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>45267.627585</v>
+        <v>45267.627585000002</v>
       </c>
       <c r="AK12" s="1">
         <v>12.574341</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.181000</v>
+        <v>976.18100000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.433000</v>
+        <v>-79.433000000000007</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>45278.437891</v>
+        <v>45278.437891000001</v>
       </c>
       <c r="AP12" s="1">
         <v>12.577344</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.572000</v>
+        <v>984.572</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.331600</v>
+        <v>-91.331599999999995</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>45289.517028</v>
+        <v>45289.517028000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>12.580421</v>
+        <v>12.580420999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.584000</v>
+        <v>994.58399999999995</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.140000</v>
+        <v>-109.14</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>45300.630390</v>
+        <v>45300.630389999998</v>
       </c>
       <c r="AZ12" s="1">
         <v>12.583508</v>
       </c>
       <c r="BA12" s="1">
-        <v>1002.960000</v>
+        <v>1002.96</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.913000</v>
+        <v>-124.913</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>45311.382169</v>
+        <v>45311.382168999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>12.586495</v>
+        <v>12.586494999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1041.760000</v>
+        <v>1041.76</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.256000</v>
+        <v>-197.256</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>45322.255993</v>
+        <v>45322.255992999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>12.589516</v>
       </c>
       <c r="BK12" s="1">
-        <v>1108.450000</v>
+        <v>1108.45</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.668000</v>
+        <v>-314.66800000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>45333.748761</v>
+        <v>45333.748761000003</v>
       </c>
       <c r="BO12" s="1">
         <v>12.592708</v>
       </c>
       <c r="BP12" s="1">
-        <v>1216.690000</v>
+        <v>1216.69</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-500.022000</v>
+        <v>-500.02199999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>45344.250095</v>
+        <v>45344.250095000003</v>
       </c>
       <c r="BT12" s="1">
         <v>12.595625</v>
       </c>
       <c r="BU12" s="1">
-        <v>1338.520000</v>
+        <v>1338.52</v>
       </c>
       <c r="BV12" s="1">
-        <v>-703.524000</v>
+        <v>-703.524</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>45354.998367</v>
@@ -3276,240 +3692,240 @@
         <v>12.598611</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1475.040000</v>
+        <v>1475.04</v>
       </c>
       <c r="CA12" s="1">
-        <v>-921.335000</v>
+        <v>-921.33500000000004</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>45367.065535</v>
+        <v>45367.065535000002</v>
       </c>
       <c r="CD12" s="1">
         <v>12.601963</v>
       </c>
       <c r="CE12" s="1">
-        <v>1833.410000</v>
+        <v>1833.41</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1438.470000</v>
+        <v>-1438.47</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>45194.255395</v>
       </c>
       <c r="B13" s="1">
-        <v>12.553960</v>
+        <v>12.55396</v>
       </c>
       <c r="C13" s="1">
-        <v>904.985000</v>
+        <v>904.98500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-178.988000</v>
+        <v>-178.988</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>45204.679846</v>
+        <v>45204.679845999999</v>
       </c>
       <c r="G13" s="1">
         <v>12.556856</v>
       </c>
       <c r="H13" s="1">
-        <v>919.999000</v>
+        <v>919.99900000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>-153.046000</v>
+        <v>-153.04599999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>45215.143909</v>
+        <v>45215.143908999999</v>
       </c>
       <c r="L13" s="1">
-        <v>12.559762</v>
+        <v>12.559761999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>941.066000</v>
+        <v>941.06600000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-111.489000</v>
+        <v>-111.489</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>45225.756312</v>
+        <v>45225.756311999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>12.562710</v>
+        <v>12.562709999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>947.912000</v>
+        <v>947.91200000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-98.255900</v>
+        <v>-98.255899999999997</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>45236.519994</v>
+        <v>45236.519994000002</v>
       </c>
       <c r="V13" s="1">
-        <v>12.565700</v>
+        <v>12.5657</v>
       </c>
       <c r="W13" s="1">
-        <v>955.161000</v>
+        <v>955.16099999999994</v>
       </c>
       <c r="X13" s="1">
-        <v>-85.412700</v>
+        <v>-85.412700000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>45246.966867</v>
+        <v>45246.966867000003</v>
       </c>
       <c r="AA13" s="1">
         <v>12.568602</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.217000</v>
+        <v>963.21699999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-75.568600</v>
+        <v>-75.568600000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>45257.467535</v>
+        <v>45257.467535000003</v>
       </c>
       <c r="AF13" s="1">
         <v>12.571519</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.433000</v>
+        <v>968.43299999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.160600</v>
+        <v>-74.160600000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>45267.977263</v>
+        <v>45267.977263000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>12.574438</v>
+        <v>12.574438000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.168000</v>
+        <v>976.16800000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.446100</v>
+        <v>-79.446100000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>45279.102069</v>
       </c>
       <c r="AP13" s="1">
-        <v>12.577528</v>
+        <v>12.577527999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.591000</v>
+        <v>984.59100000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.298100</v>
+        <v>-91.298100000000005</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>45290.200515</v>
+        <v>45290.200514999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>12.580611</v>
+        <v>12.580610999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.597000</v>
+        <v>994.59699999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.138000</v>
+        <v>-109.13800000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>45301.034628</v>
+        <v>45301.034628000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>12.583621</v>
+        <v>12.583621000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1002.930000</v>
+        <v>1002.93</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.904000</v>
+        <v>-124.904</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>45311.743758</v>
+        <v>45311.743757999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>12.586595</v>
+        <v>12.586595000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1041.770000</v>
+        <v>1041.77</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.252000</v>
+        <v>-197.25200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>45322.644329</v>
+        <v>45322.644329000002</v>
       </c>
       <c r="BJ13" s="1">
         <v>12.589623</v>
       </c>
       <c r="BK13" s="1">
-        <v>1108.450000</v>
+        <v>1108.45</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.673000</v>
+        <v>-314.673</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>45334.144106</v>
       </c>
       <c r="BO13" s="1">
-        <v>12.592818</v>
+        <v>12.592817999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1216.670000</v>
+        <v>1216.67</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-500.069000</v>
+        <v>-500.06900000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>45344.678603</v>
@@ -3518,13 +3934,13 @@
         <v>12.595744</v>
       </c>
       <c r="BU13" s="1">
-        <v>1338.510000</v>
+        <v>1338.51</v>
       </c>
       <c r="BV13" s="1">
-        <v>-703.548000</v>
+        <v>-703.548</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>45355.418974</v>
@@ -3533,210 +3949,210 @@
         <v>12.598727</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1475.080000</v>
+        <v>1475.08</v>
       </c>
       <c r="CA13" s="1">
-        <v>-921.380000</v>
+        <v>-921.38</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>45367.595295</v>
+        <v>45367.595294999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>12.602110</v>
+        <v>12.60211</v>
       </c>
       <c r="CE13" s="1">
-        <v>1834.580000</v>
+        <v>1834.58</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1439.150000</v>
+        <v>-1439.15</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>45194.601633</v>
+        <v>45194.601632999998</v>
       </c>
       <c r="B14" s="1">
-        <v>12.554056</v>
+        <v>12.554055999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>904.847000</v>
+        <v>904.84699999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-179.018000</v>
+        <v>-179.018</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>45205.024035</v>
+        <v>45205.024035000002</v>
       </c>
       <c r="G14" s="1">
         <v>12.556951</v>
       </c>
       <c r="H14" s="1">
-        <v>920.132000</v>
+        <v>920.13199999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-153.032000</v>
+        <v>-153.03200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>45215.836211</v>
+        <v>45215.836211000002</v>
       </c>
       <c r="L14" s="1">
         <v>12.559955</v>
       </c>
       <c r="M14" s="1">
-        <v>941.113000</v>
+        <v>941.11300000000006</v>
       </c>
       <c r="N14" s="1">
-        <v>-111.637000</v>
+        <v>-111.637</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>45226.412520</v>
+        <v>45226.412519999998</v>
       </c>
       <c r="Q14" s="1">
         <v>12.562892</v>
       </c>
       <c r="R14" s="1">
-        <v>947.898000</v>
+        <v>947.89800000000002</v>
       </c>
       <c r="S14" s="1">
-        <v>-98.287000</v>
+        <v>-98.287000000000006</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>45236.865211</v>
+        <v>45236.865210999997</v>
       </c>
       <c r="V14" s="1">
-        <v>12.565796</v>
+        <v>12.565796000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>955.059000</v>
+        <v>955.05899999999997</v>
       </c>
       <c r="X14" s="1">
-        <v>-85.282300</v>
+        <v>-85.282300000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>45247.312475</v>
+        <v>45247.312474999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>12.568698</v>
+        <v>12.568697999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.158000</v>
+        <v>963.15800000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-75.613800</v>
+        <v>-75.613799999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>45257.805806</v>
+        <v>45257.805805999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>12.571613</v>
+        <v>12.571612999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.489000</v>
+        <v>968.48900000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.160200</v>
+        <v>-74.160200000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>45268.632976</v>
+        <v>45268.632976000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>12.574620</v>
+        <v>12.574619999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.187000</v>
+        <v>976.18700000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.444300</v>
+        <v>-79.444299999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>45279.520195</v>
+        <v>45279.520194999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>12.577644</v>
+        <v>12.577643999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.588000</v>
+        <v>984.58799999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.316200</v>
+        <v>-91.316199999999995</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>45290.643972</v>
+        <v>45290.643971999998</v>
       </c>
       <c r="AU14" s="1">
         <v>12.580734</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.592000</v>
+        <v>994.59199999999998</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.150000</v>
+        <v>-109.15</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>45301.421044</v>
+        <v>45301.421044000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>12.583728</v>
+        <v>12.583728000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1002.920000</v>
+        <v>1002.92</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.912000</v>
+        <v>-124.91200000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>45312.110909</v>
+        <v>45312.110909000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>12.586697</v>
+        <v>12.586696999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1041.770000</v>
+        <v>1041.77</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.242000</v>
+        <v>-197.24199999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>45323.018313</v>
@@ -3745,13 +4161,13 @@
         <v>12.589727</v>
       </c>
       <c r="BK14" s="1">
-        <v>1108.480000</v>
+        <v>1108.48</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.657000</v>
+        <v>-314.65699999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>45334.570668</v>
@@ -3760,150 +4176,150 @@
         <v>12.592936</v>
       </c>
       <c r="BP14" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-500.038000</v>
+        <v>-500.03800000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>45345.109626</v>
+        <v>45345.109625999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>12.595864</v>
+        <v>12.595864000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1338.480000</v>
+        <v>1338.48</v>
       </c>
       <c r="BV14" s="1">
-        <v>-703.558000</v>
+        <v>-703.55799999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>45355.843053</v>
+        <v>45355.843052999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>12.598845</v>
+        <v>12.598845000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1475.100000</v>
+        <v>1475.1</v>
       </c>
       <c r="CA14" s="1">
-        <v>-921.320000</v>
+        <v>-921.32</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>45368.111100</v>
+        <v>45368.111100000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>12.602253</v>
+        <v>12.602252999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1834.960000</v>
+        <v>1834.96</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1438.120000</v>
+        <v>-1438.12</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>45195.282148</v>
+        <v>45195.282147999998</v>
       </c>
       <c r="B15" s="1">
         <v>12.554245</v>
       </c>
       <c r="C15" s="1">
-        <v>904.857000</v>
+        <v>904.85699999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-179.080000</v>
+        <v>-179.08</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>45205.714468</v>
+        <v>45205.714467999998</v>
       </c>
       <c r="G15" s="1">
         <v>12.557143</v>
       </c>
       <c r="H15" s="1">
-        <v>919.989000</v>
+        <v>919.98900000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-152.688000</v>
+        <v>-152.68799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>45216.187027</v>
       </c>
       <c r="L15" s="1">
-        <v>12.560052</v>
+        <v>12.560052000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>941.279000</v>
+        <v>941.279</v>
       </c>
       <c r="N15" s="1">
-        <v>-111.447000</v>
+        <v>-111.447</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>45226.757735</v>
+        <v>45226.757734999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>12.562988</v>
+        <v>12.562988000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>947.898000</v>
+        <v>947.89800000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-98.229500</v>
+        <v>-98.229500000000002</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>45237.207981</v>
       </c>
       <c r="V15" s="1">
-        <v>12.565891</v>
+        <v>12.565891000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>955.102000</v>
+        <v>955.10199999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-85.353100</v>
+        <v>-85.353099999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>45247.971628</v>
+        <v>45247.971627999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>12.568881</v>
+        <v>12.568880999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.169000</v>
+        <v>963.16899999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-75.652700</v>
+        <v>-75.652699999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>45258.470941</v>
@@ -3912,375 +4328,375 @@
         <v>12.571797</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.496000</v>
+        <v>968.49599999999998</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.091300</v>
+        <v>-74.091300000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>45269.022832</v>
+        <v>45269.022832000002</v>
       </c>
       <c r="AK15" s="1">
         <v>12.574729</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.208000</v>
+        <v>976.20799999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.457100</v>
+        <v>-79.457099999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>45279.906048</v>
+        <v>45279.906047999997</v>
       </c>
       <c r="AP15" s="1">
         <v>12.577752</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.570000</v>
+        <v>984.57</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.302400</v>
+        <v>-91.302400000000006</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>45291.008498</v>
+        <v>45291.008498000003</v>
       </c>
       <c r="AU15" s="1">
         <v>12.580836</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.591000</v>
+        <v>994.59100000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.134000</v>
+        <v>-109.134</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>45301.781605</v>
+        <v>45301.781604999996</v>
       </c>
       <c r="AZ15" s="1">
         <v>12.583828</v>
       </c>
       <c r="BA15" s="1">
-        <v>1002.950000</v>
+        <v>1002.95</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.906000</v>
+        <v>-124.90600000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>45312.538373</v>
+        <v>45312.538373000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>12.586816</v>
+        <v>12.586816000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1041.760000</v>
+        <v>1041.76</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.241000</v>
+        <v>-197.24100000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>45323.443880</v>
+        <v>45323.443879999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>12.589846</v>
       </c>
       <c r="BK15" s="1">
-        <v>1108.480000</v>
+        <v>1108.48</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.648000</v>
+        <v>-314.64800000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>45334.962008</v>
+        <v>45334.962008000002</v>
       </c>
       <c r="BO15" s="1">
         <v>12.593045</v>
       </c>
       <c r="BP15" s="1">
-        <v>1216.670000</v>
+        <v>1216.67</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-500.082000</v>
+        <v>-500.08199999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>45345.520810</v>
+        <v>45345.520810000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>12.595978</v>
+        <v>12.595978000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1338.520000</v>
+        <v>1338.52</v>
       </c>
       <c r="BV15" s="1">
-        <v>-703.540000</v>
+        <v>-703.54</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>45356.267628</v>
+        <v>45356.267628000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>12.598963</v>
+        <v>12.598962999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1475.020000</v>
+        <v>1475.02</v>
       </c>
       <c r="CA15" s="1">
-        <v>-921.225000</v>
+        <v>-921.22500000000002</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>45368.631935</v>
+        <v>45368.631934999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>12.602398</v>
+        <v>12.602398000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1833.710000</v>
+        <v>1833.71</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1438.110000</v>
+        <v>-1438.11</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>45195.627824</v>
+        <v>45195.627824000003</v>
       </c>
       <c r="B16" s="1">
-        <v>12.554341</v>
+        <v>12.554341000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>905.101000</v>
+        <v>905.101</v>
       </c>
       <c r="D16" s="1">
-        <v>-179.063000</v>
+        <v>-179.06299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>45206.063650</v>
+        <v>45206.063649999996</v>
       </c>
       <c r="G16" s="1">
-        <v>12.557240</v>
+        <v>12.55724</v>
       </c>
       <c r="H16" s="1">
-        <v>919.271000</v>
+        <v>919.27099999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-152.388000</v>
+        <v>-152.38800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>45216.529767</v>
       </c>
       <c r="L16" s="1">
-        <v>12.560147</v>
+        <v>12.560147000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>941.155000</v>
+        <v>941.15499999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-111.537000</v>
+        <v>-111.53700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>45227.412454</v>
+        <v>45227.412453999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>12.563170</v>
+        <v>12.56317</v>
       </c>
       <c r="R16" s="1">
-        <v>947.844000</v>
+        <v>947.84400000000005</v>
       </c>
       <c r="S16" s="1">
-        <v>-98.234900</v>
+        <v>-98.234899999999996</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>45237.857706</v>
+        <v>45237.857706000003</v>
       </c>
       <c r="V16" s="1">
         <v>12.566072</v>
       </c>
       <c r="W16" s="1">
-        <v>955.088000</v>
+        <v>955.08799999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-85.396100</v>
+        <v>-85.396100000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>45248.358010</v>
+        <v>45248.358010000004</v>
       </c>
       <c r="AA16" s="1">
-        <v>12.568988</v>
+        <v>12.568987999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.223000</v>
+        <v>963.22299999999996</v>
       </c>
       <c r="AC16" s="1">
-        <v>-75.631100</v>
+        <v>-75.631100000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>45258.869228</v>
+        <v>45258.869228000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>12.571908</v>
+        <v>12.571908000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.433000</v>
+        <v>968.43299999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.107700</v>
+        <v>-74.107699999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>45269.373038</v>
+        <v>45269.373037999998</v>
       </c>
       <c r="AK16" s="1">
         <v>12.574826</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.177000</v>
+        <v>976.17700000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.429000</v>
+        <v>-79.429000000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>45280.268626</v>
+        <v>45280.268625999997</v>
       </c>
       <c r="AP16" s="1">
         <v>12.577852</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.594000</v>
+        <v>984.59400000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.312300</v>
+        <v>-91.312299999999993</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>45291.373058</v>
+        <v>45291.373057999997</v>
       </c>
       <c r="AU16" s="1">
         <v>12.580937</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.589000</v>
+        <v>994.58900000000006</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.153000</v>
+        <v>-109.15300000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>45302.201715</v>
+        <v>45302.201715000003</v>
       </c>
       <c r="AZ16" s="1">
         <v>12.583945</v>
       </c>
       <c r="BA16" s="1">
-        <v>1002.930000</v>
+        <v>1002.93</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.911000</v>
+        <v>-124.911</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>45312.844175</v>
+        <v>45312.844174999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>12.586901</v>
+        <v>12.586900999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1041.760000</v>
+        <v>1041.76</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.241000</v>
+        <v>-197.24100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>45323.771734</v>
+        <v>45323.771734000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>12.589937</v>
+        <v>12.589937000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1108.460000</v>
+        <v>1108.46</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.691000</v>
+        <v>-314.69099999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>45335.382615</v>
+        <v>45335.382615000002</v>
       </c>
       <c r="BO16" s="1">
         <v>12.593162</v>
       </c>
       <c r="BP16" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-500.059000</v>
+        <v>-500.05900000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>45345.949385</v>
@@ -4289,347 +4705,347 @@
         <v>12.596097</v>
       </c>
       <c r="BU16" s="1">
-        <v>1338.560000</v>
+        <v>1338.56</v>
       </c>
       <c r="BV16" s="1">
-        <v>-703.556000</v>
+        <v>-703.55600000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>45356.682315</v>
+        <v>45356.682314999998</v>
       </c>
       <c r="BY16" s="1">
         <v>12.599078</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1475.150000</v>
+        <v>1475.15</v>
       </c>
       <c r="CA16" s="1">
-        <v>-921.293000</v>
+        <v>-921.29300000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>45369.147242</v>
+        <v>45369.147241999999</v>
       </c>
       <c r="CD16" s="1">
         <v>12.602541</v>
       </c>
       <c r="CE16" s="1">
-        <v>1834.340000</v>
+        <v>1834.34</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1437.680000</v>
+        <v>-1437.68</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>45195.974031</v>
+        <v>45195.974030999998</v>
       </c>
       <c r="B17" s="1">
         <v>12.554437</v>
       </c>
       <c r="C17" s="1">
-        <v>904.866000</v>
+        <v>904.86599999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-179.133000</v>
+        <v>-179.13300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>45206.411380</v>
+        <v>45206.411379999998</v>
       </c>
       <c r="G17" s="1">
-        <v>12.557336</v>
+        <v>12.557335999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>919.669000</v>
+        <v>919.66899999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-153.280000</v>
+        <v>-153.28</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>45217.183459</v>
       </c>
       <c r="L17" s="1">
-        <v>12.560329</v>
+        <v>12.560328999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>941.153000</v>
+        <v>941.15300000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-111.672000</v>
+        <v>-111.672</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>45227.803799</v>
+        <v>45227.803799000001</v>
       </c>
       <c r="Q17" s="1">
         <v>12.563279</v>
       </c>
       <c r="R17" s="1">
-        <v>947.894000</v>
+        <v>947.89400000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-98.253500</v>
+        <v>-98.253500000000003</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>45238.238633</v>
+        <v>45238.238633000001</v>
       </c>
       <c r="V17" s="1">
         <v>12.566177</v>
       </c>
       <c r="W17" s="1">
-        <v>955.100000</v>
+        <v>955.1</v>
       </c>
       <c r="X17" s="1">
-        <v>-85.299800</v>
+        <v>-85.299800000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>45248.703723</v>
+        <v>45248.703722999999</v>
       </c>
       <c r="AA17" s="1">
         <v>12.569084</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.242000</v>
+        <v>963.24199999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-75.661800</v>
+        <v>-75.661799999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>45259.186669</v>
+        <v>45259.186669000002</v>
       </c>
       <c r="AF17" s="1">
         <v>12.571996</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.405000</v>
+        <v>968.40499999999997</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.129200</v>
+        <v>-74.129199999999997</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>45269.722686</v>
+        <v>45269.722686000001</v>
       </c>
       <c r="AK17" s="1">
         <v>12.574923</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.167000</v>
+        <v>976.16700000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.441200</v>
+        <v>-79.441199999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>45280.691216</v>
+        <v>45280.691215999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>12.577970</v>
+        <v>12.577970000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.571000</v>
+        <v>984.57100000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.338200</v>
+        <v>-91.338200000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>45291.834337</v>
       </c>
       <c r="AU17" s="1">
-        <v>12.581065</v>
+        <v>12.581065000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.594000</v>
+        <v>994.59400000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.143000</v>
+        <v>-109.143</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>45302.499347</v>
+        <v>45302.499346999997</v>
       </c>
       <c r="AZ17" s="1">
         <v>12.584028</v>
       </c>
       <c r="BA17" s="1">
-        <v>1002.950000</v>
+        <v>1002.95</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.915000</v>
+        <v>-124.91500000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>45313.191076</v>
+        <v>45313.191076000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>12.586998</v>
+        <v>12.586997999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1041.770000</v>
+        <v>1041.77</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.255000</v>
+        <v>-197.255</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>45324.157126</v>
+        <v>45324.157125999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>12.590044</v>
+        <v>12.590044000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1108.460000</v>
+        <v>1108.46</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.624000</v>
+        <v>-314.62400000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>45335.782893</v>
+        <v>45335.782893000003</v>
       </c>
       <c r="BO17" s="1">
         <v>12.593273</v>
       </c>
       <c r="BP17" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-500.042000</v>
+        <v>-500.04199999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>45346.377402</v>
+        <v>45346.377401999998</v>
       </c>
       <c r="BT17" s="1">
         <v>12.596216</v>
       </c>
       <c r="BU17" s="1">
-        <v>1338.610000</v>
+        <v>1338.61</v>
       </c>
       <c r="BV17" s="1">
-        <v>-703.555000</v>
+        <v>-703.55499999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>45357.140628</v>
+        <v>45357.140628000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>12.599206</v>
+        <v>12.599206000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1475.070000</v>
+        <v>1475.07</v>
       </c>
       <c r="CA17" s="1">
-        <v>-921.205000</v>
+        <v>-921.20500000000004</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>45369.699787</v>
+        <v>45369.699786999998</v>
       </c>
       <c r="CD17" s="1">
         <v>12.602694</v>
       </c>
       <c r="CE17" s="1">
-        <v>1834.790000</v>
+        <v>1834.79</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1438.180000</v>
+        <v>-1438.18</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>45196.629248</v>
+        <v>45196.629247999997</v>
       </c>
       <c r="B18" s="1">
-        <v>12.554619</v>
+        <v>12.554619000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>905.143000</v>
+        <v>905.14300000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-179.074000</v>
+        <v>-179.07400000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>45207.069537</v>
+        <v>45207.069537000003</v>
       </c>
       <c r="G18" s="1">
-        <v>12.557519</v>
+        <v>12.557518999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>920.220000</v>
+        <v>920.22</v>
       </c>
       <c r="I18" s="1">
-        <v>-153.177000</v>
+        <v>-153.17699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>45217.564424</v>
+        <v>45217.564423999997</v>
       </c>
       <c r="L18" s="1">
         <v>12.560435</v>
       </c>
       <c r="M18" s="1">
-        <v>941.071000</v>
+        <v>941.07100000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-111.674000</v>
+        <v>-111.67400000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>45228.154014</v>
@@ -4638,300 +5054,300 @@
         <v>12.563376</v>
       </c>
       <c r="R18" s="1">
-        <v>947.899000</v>
+        <v>947.899</v>
       </c>
       <c r="S18" s="1">
-        <v>-98.259700</v>
+        <v>-98.259699999999995</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>45238.584241</v>
+        <v>45238.584240999997</v>
       </c>
       <c r="V18" s="1">
-        <v>12.566273</v>
+        <v>12.566273000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>955.048000</v>
+        <v>955.048</v>
       </c>
       <c r="X18" s="1">
-        <v>-85.286100</v>
+        <v>-85.286100000000005</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>45249.054393</v>
+        <v>45249.054392999999</v>
       </c>
       <c r="AA18" s="1">
         <v>12.569182</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.225000</v>
+        <v>963.22500000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-75.618200</v>
+        <v>-75.618200000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>45259.617233</v>
+        <v>45259.617232999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>12.572116</v>
+        <v>12.572115999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.479000</v>
+        <v>968.47900000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.176500</v>
+        <v>-74.176500000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>45270.153245</v>
+        <v>45270.153245000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>12.575043</v>
+        <v>12.575043000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.181000</v>
+        <v>976.18100000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.448500</v>
+        <v>-79.448499999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>45280.988816</v>
+        <v>45280.988815999997</v>
       </c>
       <c r="AP18" s="1">
         <v>12.578052</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.573000</v>
+        <v>984.57299999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.316200</v>
+        <v>-91.316199999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>45292.102673</v>
+        <v>45292.102673000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>12.581140</v>
+        <v>12.58114</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.567000</v>
+        <v>994.56700000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.139000</v>
+        <v>-109.139</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>45302.858454</v>
+        <v>45302.858454000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>12.584127</v>
+        <v>12.584127000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1002.940000</v>
+        <v>1002.94</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.920000</v>
+        <v>-124.92</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>45313.553155</v>
+        <v>45313.553155000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>12.587098</v>
+        <v>12.587097999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1041.770000</v>
+        <v>1041.77</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.254000</v>
+        <v>-197.25399999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>45324.891701</v>
       </c>
       <c r="BJ18" s="1">
-        <v>12.590248</v>
+        <v>12.590248000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1108.460000</v>
+        <v>1108.46</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.652000</v>
+        <v>-314.65199999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>45336.202470</v>
+        <v>45336.202469999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>12.593390</v>
+        <v>12.593389999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-500.021000</v>
+        <v>-500.02100000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>45346.789113</v>
+        <v>45346.789112999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>12.596330</v>
+        <v>12.59633</v>
       </c>
       <c r="BU18" s="1">
-        <v>1338.610000</v>
+        <v>1338.61</v>
       </c>
       <c r="BV18" s="1">
-        <v>-703.468000</v>
+        <v>-703.46799999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>45357.586490</v>
+        <v>45357.586490000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>12.599330</v>
+        <v>12.59933</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1475.160000</v>
+        <v>1475.16</v>
       </c>
       <c r="CA18" s="1">
-        <v>-921.230000</v>
+        <v>-921.23</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>45370.232025</v>
+        <v>45370.232024999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>12.602842</v>
+        <v>12.602842000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1833.540000</v>
+        <v>1833.54</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1437.620000</v>
+        <v>-1437.62</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>45197.000287</v>
+        <v>45197.000287000003</v>
       </c>
       <c r="B19" s="1">
         <v>12.554722</v>
       </c>
       <c r="C19" s="1">
-        <v>904.915000</v>
+        <v>904.91499999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-179.123000</v>
+        <v>-179.12299999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>45207.445009</v>
+        <v>45207.445009000003</v>
       </c>
       <c r="G19" s="1">
-        <v>12.557624</v>
+        <v>12.557624000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>919.774000</v>
+        <v>919.774</v>
       </c>
       <c r="I19" s="1">
-        <v>-152.966000</v>
+        <v>-152.96600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>45217.910595</v>
+        <v>45217.910595000001</v>
       </c>
       <c r="L19" s="1">
-        <v>12.560531</v>
+        <v>12.560530999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>941.067000</v>
+        <v>941.06700000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-111.585000</v>
+        <v>-111.58499999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>45228.500217</v>
+        <v>45228.500217000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>12.563472</v>
+        <v>12.563472000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>947.896000</v>
+        <v>947.89599999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-98.358700</v>
+        <v>-98.358699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>45238.931542</v>
+        <v>45238.931541999998</v>
       </c>
       <c r="V19" s="1">
-        <v>12.566370</v>
+        <v>12.566369999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>955.045000</v>
+        <v>955.04499999999996</v>
       </c>
       <c r="X19" s="1">
-        <v>-85.438600</v>
+        <v>-85.438599999999994</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>45249.493848</v>
+        <v>45249.493847999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>12.569304</v>
+        <v>12.569304000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.151000</v>
+        <v>963.15099999999995</v>
       </c>
       <c r="AC19" s="1">
-        <v>-75.647300</v>
+        <v>-75.647300000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>45259.899028</v>
@@ -4940,73 +5356,73 @@
         <v>12.572194</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.495000</v>
+        <v>968.495</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.148900</v>
+        <v>-74.148899999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>45270.431370</v>
+        <v>45270.431369999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.575120</v>
+        <v>12.57512</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.217000</v>
+        <v>976.21699999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.464100</v>
+        <v>-79.464100000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>45281.347037</v>
       </c>
       <c r="AP19" s="1">
-        <v>12.578152</v>
+        <v>12.578151999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.585000</v>
+        <v>984.58500000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.314300</v>
+        <v>-91.314300000000003</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>45292.466276</v>
+        <v>45292.466275999999</v>
       </c>
       <c r="AU19" s="1">
         <v>12.581241</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.596000</v>
+        <v>994.596</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.131000</v>
+        <v>-109.131</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>45303.218545</v>
+        <v>45303.218545000003</v>
       </c>
       <c r="AZ19" s="1">
         <v>12.584227</v>
       </c>
       <c r="BA19" s="1">
-        <v>1002.930000</v>
+        <v>1002.93</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.915000</v>
+        <v>-124.91500000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>45314.274867</v>
@@ -5015,150 +5431,150 @@
         <v>12.587299</v>
       </c>
       <c r="BF19" s="1">
-        <v>1041.770000</v>
+        <v>1041.77</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.265000</v>
+        <v>-197.26499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>45325.294982</v>
+        <v>45325.294981999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>12.590360</v>
+        <v>12.59036</v>
       </c>
       <c r="BK19" s="1">
-        <v>1108.480000</v>
+        <v>1108.48</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.651000</v>
+        <v>-314.65100000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>45336.598805</v>
+        <v>45336.598805000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>12.593500</v>
+        <v>12.593500000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1216.670000</v>
+        <v>1216.67</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-500.065000</v>
+        <v>-500.065</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>45347.222583</v>
+        <v>45347.222583000002</v>
       </c>
       <c r="BT19" s="1">
         <v>12.596451</v>
       </c>
       <c r="BU19" s="1">
-        <v>1338.600000</v>
+        <v>1338.6</v>
       </c>
       <c r="BV19" s="1">
-        <v>-703.508000</v>
+        <v>-703.50800000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>45358.006602</v>
+        <v>45358.006602000001</v>
       </c>
       <c r="BY19" s="1">
         <v>12.599446</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1475.040000</v>
+        <v>1475.04</v>
       </c>
       <c r="CA19" s="1">
-        <v>-921.384000</v>
+        <v>-921.38400000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>45371.059321</v>
+        <v>45371.059321000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>12.603072</v>
+        <v>12.603071999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1833.380000</v>
+        <v>1833.38</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1439.010000</v>
+        <v>-1439.01</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>45197.346495</v>
+        <v>45197.346494999998</v>
       </c>
       <c r="B20" s="1">
-        <v>12.554818</v>
+        <v>12.554817999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>904.844000</v>
+        <v>904.84400000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-179.125000</v>
+        <v>-179.125</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>45207.788767</v>
+        <v>45207.788766999998</v>
       </c>
       <c r="G20" s="1">
-        <v>12.557719</v>
+        <v>12.557719000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>920.184000</v>
+        <v>920.18399999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-152.358000</v>
+        <v>-152.358</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>45218.258323</v>
+        <v>45218.258323000002</v>
       </c>
       <c r="L20" s="1">
         <v>12.560627</v>
       </c>
       <c r="M20" s="1">
-        <v>941.124000</v>
+        <v>941.12400000000002</v>
       </c>
       <c r="N20" s="1">
-        <v>-111.719000</v>
+        <v>-111.71899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>45228.915332</v>
+        <v>45228.915331999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>12.563588</v>
+        <v>12.563587999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>947.872000</v>
+        <v>947.87199999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-98.324700</v>
+        <v>-98.324700000000007</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>45239.339751</v>
@@ -5167,73 +5583,73 @@
         <v>12.566483</v>
       </c>
       <c r="W20" s="1">
-        <v>955.052000</v>
+        <v>955.05200000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-85.393100</v>
+        <v>-85.393100000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>45249.756728</v>
       </c>
       <c r="AA20" s="1">
-        <v>12.569377</v>
+        <v>12.569376999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.157000</v>
+        <v>963.15700000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-75.666500</v>
+        <v>-75.666499999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>45260.241202</v>
+        <v>45260.241201999997</v>
       </c>
       <c r="AF20" s="1">
         <v>12.572289</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.627000</v>
+        <v>968.62699999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.266100</v>
+        <v>-74.266099999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>45270.780157</v>
+        <v>45270.780157000001</v>
       </c>
       <c r="AK20" s="1">
         <v>12.575217</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.200000</v>
+        <v>976.2</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.478400</v>
+        <v>-79.478399999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>45281.709007</v>
+        <v>45281.709006999998</v>
       </c>
       <c r="AP20" s="1">
         <v>12.578253</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.570000</v>
+        <v>984.57</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.312900</v>
+        <v>-91.312899999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>45293.196053</v>
@@ -5242,73 +5658,73 @@
         <v>12.581443</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.597000</v>
+        <v>994.59699999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.157000</v>
+        <v>-109.157</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>45303.934242</v>
+        <v>45303.934242000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>12.584426</v>
+        <v>12.584426000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1002.940000</v>
+        <v>1002.94</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.928000</v>
+        <v>-124.928</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>45314.662738</v>
+        <v>45314.662737999999</v>
       </c>
       <c r="BE20" s="1">
         <v>12.587406</v>
       </c>
       <c r="BF20" s="1">
-        <v>1041.760000</v>
+        <v>1041.76</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.269000</v>
+        <v>-197.26900000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>45325.696249</v>
+        <v>45325.696249000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>12.590471</v>
+        <v>12.590471000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1108.460000</v>
+        <v>1108.46</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.662000</v>
+        <v>-314.66199999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>45337.017894</v>
+        <v>45337.017893999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>12.593616</v>
+        <v>12.593616000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-500.022000</v>
+        <v>-500.02199999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>45347.959638</v>
@@ -5317,180 +5733,180 @@
         <v>12.596655</v>
       </c>
       <c r="BU20" s="1">
-        <v>1338.610000</v>
+        <v>1338.61</v>
       </c>
       <c r="BV20" s="1">
-        <v>-703.538000</v>
+        <v>-703.53800000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>45358.468913</v>
+        <v>45358.468912999997</v>
       </c>
       <c r="BY20" s="1">
         <v>12.599575</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1475.060000</v>
+        <v>1475.06</v>
       </c>
       <c r="CA20" s="1">
-        <v>-921.303000</v>
+        <v>-921.303</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>45371.267640</v>
+        <v>45371.267639999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>12.603130</v>
+        <v>12.60313</v>
       </c>
       <c r="CE20" s="1">
-        <v>1834.600000</v>
+        <v>1834.6</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1439.270000</v>
+        <v>-1439.27</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>45197.689732</v>
+        <v>45197.689731999999</v>
       </c>
       <c r="B21" s="1">
         <v>12.554914</v>
       </c>
       <c r="C21" s="1">
-        <v>904.917000</v>
+        <v>904.91700000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>-179.255000</v>
+        <v>-179.255</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>45208.132496</v>
+        <v>45208.132495999998</v>
       </c>
       <c r="G21" s="1">
         <v>12.557815</v>
       </c>
       <c r="H21" s="1">
-        <v>919.639000</v>
+        <v>919.63900000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-152.914000</v>
+        <v>-152.91399999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>45218.675923</v>
+        <v>45218.675923000003</v>
       </c>
       <c r="L21" s="1">
         <v>12.560743</v>
       </c>
       <c r="M21" s="1">
-        <v>941.063000</v>
+        <v>941.06299999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-111.634000</v>
+        <v>-111.634</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>45229.194579</v>
+        <v>45229.194579000003</v>
       </c>
       <c r="Q21" s="1">
         <v>12.563665</v>
       </c>
       <c r="R21" s="1">
-        <v>947.892000</v>
+        <v>947.89200000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-98.294700</v>
+        <v>-98.294700000000006</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>45239.631895</v>
+        <v>45239.631894999999</v>
       </c>
       <c r="V21" s="1">
         <v>12.566564</v>
       </c>
       <c r="W21" s="1">
-        <v>955.057000</v>
+        <v>955.05700000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-85.403500</v>
+        <v>-85.403499999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>45250.107907</v>
+        <v>45250.107906999998</v>
       </c>
       <c r="AA21" s="1">
         <v>12.569474</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.252000</v>
+        <v>963.25199999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-75.677200</v>
+        <v>-75.677199999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>45260.584427</v>
+        <v>45260.584427000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>12.572385</v>
+        <v>12.572385000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.401000</v>
+        <v>968.40099999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.199800</v>
+        <v>-74.199799999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>45271.120908</v>
+        <v>45271.120907999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>12.575311</v>
+        <v>12.575310999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.214000</v>
+        <v>976.21400000000006</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.455300</v>
+        <v>-79.455299999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>45282.430191</v>
+        <v>45282.430190999999</v>
       </c>
       <c r="AP21" s="1">
         <v>12.578453</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.581000</v>
+        <v>984.58100000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.324900</v>
+        <v>-91.3249</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>45293.586206</v>
@@ -5499,150 +5915,150 @@
         <v>12.581552</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.594000</v>
+        <v>994.59400000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.133000</v>
+        <v>-109.133</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>45304.294980</v>
+        <v>45304.294979999999</v>
       </c>
       <c r="AZ21" s="1">
         <v>12.584526</v>
       </c>
       <c r="BA21" s="1">
-        <v>1002.930000</v>
+        <v>1002.93</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.926000</v>
+        <v>-124.926</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>45315.022803</v>
       </c>
       <c r="BE21" s="1">
-        <v>12.587506</v>
+        <v>12.587505999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1041.780000</v>
+        <v>1041.78</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.254000</v>
+        <v>-197.25399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>45326.392928</v>
+        <v>45326.392928000001</v>
       </c>
       <c r="BJ21" s="1">
         <v>12.590665</v>
       </c>
       <c r="BK21" s="1">
-        <v>1108.450000</v>
+        <v>1108.45</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.667000</v>
+        <v>-314.66699999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>45337.726181</v>
+        <v>45337.726180999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>12.593813</v>
+        <v>12.593813000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1216.660000</v>
+        <v>1216.6600000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-500.020000</v>
+        <v>-500.02</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>45348.092109</v>
+        <v>45348.092108999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>12.596692</v>
+        <v>12.596692000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1338.610000</v>
+        <v>1338.61</v>
       </c>
       <c r="BV21" s="1">
-        <v>-703.515000</v>
+        <v>-703.51499999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>45358.850297</v>
+        <v>45358.850296999997</v>
       </c>
       <c r="BY21" s="1">
         <v>12.599681</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1474.970000</v>
+        <v>1474.97</v>
       </c>
       <c r="CA21" s="1">
-        <v>-921.216000</v>
+        <v>-921.21600000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>45371.784503</v>
+        <v>45371.784503000003</v>
       </c>
       <c r="CD21" s="1">
         <v>12.603273</v>
       </c>
       <c r="CE21" s="1">
-        <v>1834.300000</v>
+        <v>1834.3</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1439.340000</v>
+        <v>-1439.34</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>45198.109309</v>
+        <v>45198.109308999999</v>
       </c>
       <c r="B22" s="1">
-        <v>12.555030</v>
+        <v>12.55503</v>
       </c>
       <c r="C22" s="1">
-        <v>905.050000</v>
+        <v>905.05</v>
       </c>
       <c r="D22" s="1">
-        <v>-179.022000</v>
+        <v>-179.02199999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>45208.564480</v>
+        <v>45208.564480000001</v>
       </c>
       <c r="G22" s="1">
-        <v>12.557935</v>
+        <v>12.557935000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>919.729000</v>
+        <v>919.72900000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-152.521000</v>
+        <v>-152.52099999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>45218.964624</v>
@@ -5651,163 +6067,163 @@
         <v>12.560824</v>
       </c>
       <c r="M22" s="1">
-        <v>941.112000</v>
+        <v>941.11199999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-111.567000</v>
+        <v>-111.56699999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>45229.548264</v>
+        <v>45229.548263999997</v>
       </c>
       <c r="Q22" s="1">
         <v>12.563763</v>
       </c>
       <c r="R22" s="1">
-        <v>947.877000</v>
+        <v>947.87699999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-98.287100</v>
+        <v>-98.287099999999995</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>45239.979590</v>
+        <v>45239.979590000003</v>
       </c>
       <c r="V22" s="1">
         <v>12.566661</v>
       </c>
       <c r="W22" s="1">
-        <v>955.124000</v>
+        <v>955.12400000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-85.431000</v>
+        <v>-85.430999999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>45250.443687</v>
+        <v>45250.443686999999</v>
       </c>
       <c r="AA22" s="1">
         <v>12.569568</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.159000</v>
+        <v>963.15899999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-75.675200</v>
+        <v>-75.675200000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>45261.272345</v>
+        <v>45261.272344999998</v>
       </c>
       <c r="AF22" s="1">
         <v>12.572576</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.464000</v>
+        <v>968.46400000000006</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.147800</v>
+        <v>-74.147800000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>45271.825229</v>
+        <v>45271.825229000002</v>
       </c>
       <c r="AK22" s="1">
         <v>12.575507</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.204000</v>
+        <v>976.20399999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.460700</v>
+        <v>-79.460700000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>45282.788834</v>
+        <v>45282.788833999999</v>
       </c>
       <c r="AP22" s="1">
         <v>12.578552</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.563000</v>
+        <v>984.56299999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.322600</v>
+        <v>-91.322599999999994</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>45293.953743</v>
+        <v>45293.953742999998</v>
       </c>
       <c r="AU22" s="1">
         <v>12.581654</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.575000</v>
+        <v>994.57500000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.141000</v>
+        <v>-109.14100000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>45304.652975</v>
+        <v>45304.652974999997</v>
       </c>
       <c r="AZ22" s="1">
         <v>12.584626</v>
       </c>
       <c r="BA22" s="1">
-        <v>1002.920000</v>
+        <v>1002.92</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.930000</v>
+        <v>-124.93</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>45315.705298</v>
+        <v>45315.705298000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>12.587696</v>
+        <v>12.587695999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1041.750000</v>
+        <v>1041.75</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.248000</v>
+        <v>-197.24799999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>45326.820148</v>
+        <v>45326.820147999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>12.590783</v>
       </c>
       <c r="BK22" s="1">
-        <v>1108.480000</v>
+        <v>1108.48</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.662000</v>
+        <v>-314.66199999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>45337.850714</v>
@@ -5816,135 +6232,135 @@
         <v>12.593847</v>
       </c>
       <c r="BP22" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-500.028000</v>
+        <v>-500.02800000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>45348.505733</v>
+        <v>45348.505732999998</v>
       </c>
       <c r="BT22" s="1">
         <v>12.596807</v>
       </c>
       <c r="BU22" s="1">
-        <v>1338.610000</v>
+        <v>1338.61</v>
       </c>
       <c r="BV22" s="1">
-        <v>-703.533000</v>
+        <v>-703.53300000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>45359.295244</v>
+        <v>45359.295244000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>12.599804</v>
+        <v>12.599804000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1475.050000</v>
+        <v>1475.05</v>
       </c>
       <c r="CA22" s="1">
-        <v>-921.339000</v>
+        <v>-921.33900000000006</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>45372.336022</v>
+        <v>45372.336022000003</v>
       </c>
       <c r="CD22" s="1">
         <v>12.603427</v>
       </c>
       <c r="CE22" s="1">
-        <v>1833.180000</v>
+        <v>1833.18</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1439.050000</v>
+        <v>-1439.05</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>45198.388588</v>
+        <v>45198.388588000002</v>
       </c>
       <c r="B23" s="1">
-        <v>12.555108</v>
+        <v>12.555108000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>904.871000</v>
+        <v>904.87099999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-178.812000</v>
+        <v>-178.81200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>45208.824880</v>
+        <v>45208.82488</v>
       </c>
       <c r="G23" s="1">
         <v>12.558007</v>
       </c>
       <c r="H23" s="1">
-        <v>920.214000</v>
+        <v>920.21400000000006</v>
       </c>
       <c r="I23" s="1">
-        <v>-152.937000</v>
+        <v>-152.93700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>45219.311824</v>
+        <v>45219.311823999997</v>
       </c>
       <c r="L23" s="1">
-        <v>12.560920</v>
+        <v>12.560919999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>941.092000</v>
+        <v>941.09199999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-111.850000</v>
+        <v>-111.85</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>45229.893938</v>
+        <v>45229.893938000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>12.563859</v>
+        <v>12.563859000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>947.856000</v>
+        <v>947.85599999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-98.234900</v>
+        <v>-98.234899999999996</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>45240.321364</v>
+        <v>45240.321364000003</v>
       </c>
       <c r="V23" s="1">
         <v>12.566756</v>
       </c>
       <c r="W23" s="1">
-        <v>954.957000</v>
+        <v>954.95699999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-85.396100</v>
+        <v>-85.396100000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>45251.154489</v>
@@ -5953,28 +6369,28 @@
         <v>12.569765</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.124000</v>
+        <v>963.12400000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-75.557800</v>
+        <v>-75.5578</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>45261.615081</v>
+        <v>45261.615081000004</v>
       </c>
       <c r="AF23" s="1">
         <v>12.572671</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.433000</v>
+        <v>968.43299999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.152800</v>
+        <v>-74.152799999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>45272.155067</v>
@@ -5983,13 +6399,13 @@
         <v>12.575599</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.217000</v>
+        <v>976.21699999999998</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.452700</v>
+        <v>-79.452699999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>45283.148428</v>
@@ -5998,602 +6414,602 @@
         <v>12.578652</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.586000</v>
+        <v>984.58600000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.321400</v>
+        <v>-91.321399999999997</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>45294.623373</v>
+        <v>45294.623373000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>12.581840</v>
+        <v>12.58184</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.589000</v>
+        <v>994.58900000000006</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.151000</v>
+        <v>-109.151</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>45305.322578</v>
+        <v>45305.322577999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>12.584812</v>
+        <v>12.584811999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1002.930000</v>
+        <v>1002.93</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.917000</v>
+        <v>-124.917</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>45316.133841</v>
+        <v>45316.133841000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>12.587815</v>
+        <v>12.587815000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1041.750000</v>
+        <v>1041.75</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.238000</v>
+        <v>-197.238</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>45327.199586</v>
+        <v>45327.199586000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>12.590889</v>
+        <v>12.590889000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1108.470000</v>
+        <v>1108.47</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.639000</v>
+        <v>-314.63900000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>45338.261363</v>
+        <v>45338.261362999998</v>
       </c>
       <c r="BO23" s="1">
         <v>12.593961</v>
       </c>
       <c r="BP23" s="1">
-        <v>1216.700000</v>
+        <v>1216.7</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-499.992000</v>
+        <v>-499.99200000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>45348.929845</v>
+        <v>45348.929844999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>12.596925</v>
+        <v>12.596925000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1338.600000</v>
+        <v>1338.6</v>
       </c>
       <c r="BV23" s="1">
-        <v>-703.636000</v>
+        <v>-703.63599999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>45359.752055</v>
+        <v>45359.752054999997</v>
       </c>
       <c r="BY23" s="1">
         <v>12.599931</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1475.030000</v>
+        <v>1475.03</v>
       </c>
       <c r="CA23" s="1">
-        <v>-921.238000</v>
+        <v>-921.23800000000006</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>45372.865751</v>
+        <v>45372.865750999998</v>
       </c>
       <c r="CD23" s="1">
         <v>12.603574</v>
       </c>
       <c r="CE23" s="1">
-        <v>1834.430000</v>
+        <v>1834.43</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1439.460000</v>
+        <v>-1439.46</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>45198.727324</v>
+        <v>45198.727323999999</v>
       </c>
       <c r="B24" s="1">
         <v>12.555202</v>
       </c>
       <c r="C24" s="1">
-        <v>905.217000</v>
+        <v>905.21699999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-179.071000</v>
+        <v>-179.071</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>45209.170129</v>
+        <v>45209.170128999998</v>
       </c>
       <c r="G24" s="1">
-        <v>12.558103</v>
+        <v>12.558102999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>919.661000</v>
+        <v>919.66099999999994</v>
       </c>
       <c r="I24" s="1">
-        <v>-152.803000</v>
+        <v>-152.803</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>45219.655557</v>
+        <v>45219.655556999998</v>
       </c>
       <c r="L24" s="1">
-        <v>12.561015</v>
+        <v>12.561014999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>941.016000</v>
+        <v>941.01599999999996</v>
       </c>
       <c r="N24" s="1">
-        <v>-111.916000</v>
+        <v>-111.916</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>45230.592338</v>
+        <v>45230.592338000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>12.564053</v>
+        <v>12.564052999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>947.933000</v>
+        <v>947.93299999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-98.146400</v>
+        <v>-98.1464</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>45241.006838</v>
+        <v>45241.006838000001</v>
       </c>
       <c r="V24" s="1">
         <v>12.566946</v>
       </c>
       <c r="W24" s="1">
-        <v>955.072000</v>
+        <v>955.072</v>
       </c>
       <c r="X24" s="1">
-        <v>-85.447800</v>
+        <v>-85.447800000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>45251.502645</v>
       </c>
       <c r="AA24" s="1">
-        <v>12.569862</v>
+        <v>12.569862000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.171000</v>
+        <v>963.17100000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-75.671100</v>
+        <v>-75.671099999999996</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>45261.957352</v>
+        <v>45261.957351999998</v>
       </c>
       <c r="AF24" s="1">
         <v>12.572766</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.365000</v>
+        <v>968.36500000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.121900</v>
+        <v>-74.121899999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>45272.522134</v>
+        <v>45272.522133999999</v>
       </c>
       <c r="AK24" s="1">
         <v>12.575701</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.226000</v>
+        <v>976.226</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.472300</v>
+        <v>-79.472300000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>45283.815021</v>
+        <v>45283.815021000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>12.578838</v>
+        <v>12.578837999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.592000</v>
+        <v>984.59199999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.305000</v>
+        <v>-91.305000000000007</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>45295.080188</v>
       </c>
       <c r="AU24" s="1">
-        <v>12.581967</v>
+        <v>12.581967000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.590000</v>
+        <v>994.59</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.159000</v>
+        <v>-109.15900000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>45305.730750</v>
+        <v>45305.730750000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>12.584925</v>
       </c>
       <c r="BA24" s="1">
-        <v>1002.940000</v>
+        <v>1002.94</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.923000</v>
+        <v>-124.923</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>45316.492945</v>
+        <v>45316.492944999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>12.587915</v>
+        <v>12.587915000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1041.760000</v>
+        <v>1041.76</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.263000</v>
+        <v>-197.26300000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>45327.570132</v>
+        <v>45327.570132000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>12.590992</v>
       </c>
       <c r="BK24" s="1">
-        <v>1108.450000</v>
+        <v>1108.45</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.648000</v>
+        <v>-314.64800000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>45338.657667</v>
+        <v>45338.657666999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>12.594072</v>
+        <v>12.594072000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1216.700000</v>
+        <v>1216.7</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-500.029000</v>
+        <v>-500.029</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>45349.355876</v>
+        <v>45349.355876000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>12.597043</v>
+        <v>12.597042999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1338.640000</v>
+        <v>1338.64</v>
       </c>
       <c r="BV24" s="1">
-        <v>-703.591000</v>
+        <v>-703.59100000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>45360.196967</v>
+        <v>45360.196967000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>12.600055</v>
+        <v>12.600054999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1475.060000</v>
+        <v>1475.06</v>
       </c>
       <c r="CA24" s="1">
-        <v>-921.404000</v>
+        <v>-921.404</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>45373.383573</v>
+        <v>45373.383572999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>12.603718</v>
+        <v>12.603718000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1834.170000</v>
+        <v>1834.17</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1437.680000</v>
+        <v>-1437.68</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>45199.070091</v>
+        <v>45199.070091000001</v>
       </c>
       <c r="B25" s="1">
-        <v>12.555297</v>
+        <v>12.555296999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>905.410000</v>
+        <v>905.41</v>
       </c>
       <c r="D25" s="1">
-        <v>-178.989000</v>
+        <v>-178.989</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>45209.845181</v>
+        <v>45209.845180999997</v>
       </c>
       <c r="G25" s="1">
-        <v>12.558290</v>
+        <v>12.55829</v>
       </c>
       <c r="H25" s="1">
-        <v>920.179000</v>
+        <v>920.17899999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-152.556000</v>
+        <v>-152.55600000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>45220.352445</v>
+        <v>45220.352444999997</v>
       </c>
       <c r="L25" s="1">
         <v>12.561209</v>
       </c>
       <c r="M25" s="1">
-        <v>941.161000</v>
+        <v>941.16099999999994</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.790000</v>
+        <v>-111.79</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>45230.939539</v>
+        <v>45230.939538999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>12.564150</v>
+        <v>12.56415</v>
       </c>
       <c r="R25" s="1">
-        <v>947.971000</v>
+        <v>947.971</v>
       </c>
       <c r="S25" s="1">
-        <v>-98.171300</v>
+        <v>-98.171300000000002</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>45241.352515</v>
+        <v>45241.352514999999</v>
       </c>
       <c r="V25" s="1">
-        <v>12.567042</v>
+        <v>12.567042000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>955.132000</v>
+        <v>955.13199999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-85.379700</v>
+        <v>-85.3797</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>45251.851829</v>
+        <v>45251.851828999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>12.569959</v>
+        <v>12.569959000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.134000</v>
+        <v>963.13400000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-75.629900</v>
+        <v>-75.629900000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>45262.611078</v>
+        <v>45262.611078000002</v>
       </c>
       <c r="AF25" s="1">
         <v>12.572948</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.391000</v>
+        <v>968.39099999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.160100</v>
+        <v>-74.1601</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>45273.205593</v>
+        <v>45273.205592999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>12.575890</v>
+        <v>12.575889999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.201000</v>
+        <v>976.20100000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.458500</v>
+        <v>-79.458500000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>45284.260924</v>
+        <v>45284.260924000002</v>
       </c>
       <c r="AP25" s="1">
         <v>12.578961</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.559000</v>
+        <v>984.55899999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.299600</v>
+        <v>-91.299599999999998</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>45295.445747</v>
+        <v>45295.445746999998</v>
       </c>
       <c r="AU25" s="1">
         <v>12.582068</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.586000</v>
+        <v>994.58600000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.138000</v>
+        <v>-109.13800000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>45306.109234</v>
+        <v>45306.109234000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>12.585030</v>
+        <v>12.58503</v>
       </c>
       <c r="BA25" s="1">
-        <v>1002.940000</v>
+        <v>1002.94</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.919000</v>
+        <v>-124.919</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>45316.856048</v>
+        <v>45316.856048000001</v>
       </c>
       <c r="BE25" s="1">
         <v>12.588016</v>
       </c>
       <c r="BF25" s="1">
-        <v>1041.750000</v>
+        <v>1041.75</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.247000</v>
+        <v>-197.24700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>45328.000625</v>
+        <v>45328.000625000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>12.591111</v>
       </c>
       <c r="BK25" s="1">
-        <v>1108.460000</v>
+        <v>1108.46</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.679000</v>
+        <v>-314.67899999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>45339.081282</v>
+        <v>45339.081281999999</v>
       </c>
       <c r="BO25" s="1">
         <v>12.594189</v>
       </c>
       <c r="BP25" s="1">
-        <v>1216.670000</v>
+        <v>1216.67</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-500.033000</v>
+        <v>-500.03300000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>45349.762596</v>
@@ -6602,90 +7018,90 @@
         <v>12.597156</v>
       </c>
       <c r="BU25" s="1">
-        <v>1338.650000</v>
+        <v>1338.65</v>
       </c>
       <c r="BV25" s="1">
-        <v>-703.570000</v>
+        <v>-703.57</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>45360.656231</v>
+        <v>45360.656231000001</v>
       </c>
       <c r="BY25" s="1">
         <v>12.600182</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1475.020000</v>
+        <v>1475.02</v>
       </c>
       <c r="CA25" s="1">
-        <v>-921.348000</v>
+        <v>-921.34799999999996</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>45373.930661</v>
+        <v>45373.930660999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>12.603870</v>
+        <v>12.603870000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1833.770000</v>
+        <v>1833.77</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1439.200000</v>
+        <v>-1439.2</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>45199.755034</v>
+        <v>45199.755034000002</v>
       </c>
       <c r="B26" s="1">
         <v>12.555488</v>
       </c>
       <c r="C26" s="1">
-        <v>905.242000</v>
+        <v>905.24199999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-179.152000</v>
+        <v>-179.15199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>45210.207265</v>
+        <v>45210.207264999997</v>
       </c>
       <c r="G26" s="1">
         <v>12.558391</v>
       </c>
       <c r="H26" s="1">
-        <v>920.123000</v>
+        <v>920.12300000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-152.656000</v>
+        <v>-152.65600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>45220.699631</v>
+        <v>45220.699631000003</v>
       </c>
       <c r="L26" s="1">
-        <v>12.561305</v>
+        <v>12.561305000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>940.900000</v>
+        <v>940.9</v>
       </c>
       <c r="N26" s="1">
-        <v>-111.604000</v>
+        <v>-111.604</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>45231.288193</v>
@@ -6694,210 +7110,211 @@
         <v>12.564247</v>
       </c>
       <c r="R26" s="1">
-        <v>947.926000</v>
+        <v>947.92600000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-98.157700</v>
+        <v>-98.157700000000006</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>45241.699716</v>
+        <v>45241.699716000003</v>
       </c>
       <c r="V26" s="1">
-        <v>12.567139</v>
+        <v>12.567138999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>954.979000</v>
+        <v>954.97900000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-85.377900</v>
+        <v>-85.377899999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>45252.506548</v>
+        <v>45252.506547999998</v>
       </c>
       <c r="AA26" s="1">
         <v>12.570141</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.182000</v>
+        <v>963.18200000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-75.633400</v>
+        <v>-75.633399999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>45262.988998</v>
+        <v>45262.988998000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>12.573052</v>
+        <v>12.573052000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.429000</v>
+        <v>968.42899999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.177900</v>
+        <v>-74.177899999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>45273.565193</v>
+        <v>45273.565193000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>12.575990</v>
+        <v>12.575989999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.186000</v>
+        <v>976.18600000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.444300</v>
+        <v>-79.444299999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>45284.621551</v>
+        <v>45284.621550999997</v>
       </c>
       <c r="AP26" s="1">
         <v>12.579062</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.565000</v>
+        <v>984.56500000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.319100</v>
+        <v>-91.319100000000006</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>45295.825149</v>
+        <v>45295.825148999997</v>
       </c>
       <c r="AU26" s="1">
         <v>12.582174</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.590000</v>
+        <v>994.59</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.169000</v>
+        <v>-109.169</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>45306.486189</v>
+        <v>45306.486189000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>12.585135</v>
+        <v>12.585134999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1002.920000</v>
+        <v>1002.92</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.919000</v>
+        <v>-124.919</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>45317.294975</v>
+        <v>45317.294974999997</v>
       </c>
       <c r="BE26" s="1">
         <v>12.588137</v>
       </c>
       <c r="BF26" s="1">
-        <v>1041.760000</v>
+        <v>1041.76</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.244000</v>
+        <v>-197.244</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>45328.348361</v>
+        <v>45328.348360999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>12.591208</v>
       </c>
       <c r="BK26" s="1">
-        <v>1108.450000</v>
+        <v>1108.45</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.663000</v>
+        <v>-314.66300000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>45339.476066</v>
+        <v>45339.476066000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>12.594299</v>
+        <v>12.594298999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1216.690000</v>
+        <v>1216.69</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-500.047000</v>
+        <v>-500.04700000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>45350.177779</v>
+        <v>45350.177778999998</v>
       </c>
       <c r="BT26" s="1">
         <v>12.597272</v>
       </c>
       <c r="BU26" s="1">
-        <v>1338.690000</v>
+        <v>1338.69</v>
       </c>
       <c r="BV26" s="1">
-        <v>-703.527000</v>
+        <v>-703.52700000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>45361.102134</v>
+        <v>45361.102134000001</v>
       </c>
       <c r="BY26" s="1">
         <v>12.600306</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1475.110000</v>
+        <v>1475.11</v>
       </c>
       <c r="CA26" s="1">
-        <v>-921.381000</v>
+        <v>-921.38099999999997</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>45374.824947</v>
+        <v>45374.824947000001</v>
       </c>
       <c r="CD26" s="1">
         <v>12.604118</v>
       </c>
       <c r="CE26" s="1">
-        <v>1833.670000</v>
+        <v>1833.67</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1437.960000</v>
+        <v>-1437.96</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>